--- a/5.4_proposal_and_score.xlsx
+++ b/5.4_proposal_and_score.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\develop\rho-python\FIT_5145_data_clean_analysis\ready_upload\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{968F4248-E8F4-4882-84CA-77962690BA91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="28680" yWindow="-16620" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -575,10 +581,6 @@
 The accuracy of sentiment interpretation and analysis might be negatively affected by diverse contexts and cultures, especially for K-pop which embraces various fandoms across the world. This inaccuracy may lead to misguided RP strategies.
 b. Efficiency as data volume grows
 As the K-pop fandom and public interest continue to expand, the volume of real-time data will increase significantly, challenging the system’s ability for high-efficiency real-time analysis.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Project Description
 </t>
   </si>
   <si>
@@ -1281,76 +1283,6 @@
 Miles, K. (2023, February 16). 10 Challenges Facing New Franchisors Today (And What To Do About Them). FranchiseED. https://www.franchise-ed.org.au/franchising/10-challenges-facing-new-franchisors-today-and-what-to-do-about-them/﻿
 OpenAI. (2024). ChatGPT (August 20 2024 Version) [Large language model]. https://chat.openai.com/chat
 Qualtrics. (n.d.). What is sentiment analysis and how can users leverage it?. https://www.qualtrics.com/en-au/experience-management/research/sentiment-analysis/?rid=ip&amp;prevsite=en&amp;newsite=au&amp;geo=AU&amp;geomatch=au
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 
-Data Science in Outbreaks:
-Predicting the Spread of Infectious Disease
-Student Name: Yuqi Cao
-Student ID: 34312897
-1 Project Description
-1.1 Overview
-	Nowadays, emerging infectious diseases pose significant global public health challenges. Understanding the patterns of disease spread post-outbreak can help in devising effective interventions and mitigating future risks (Simonsen, 2016).
-	The project developed a system based on methods from data science, such as big data, deep learning, and machine learning, to analyze the spread patterns of infectious diseases after outbreaks, gain in-depth understanding of transmission dynamics, identify hotspots, and guide public health responses.
-1.2 Data Sources
-	The data used in this project come from official health records, mobility data, environmental databases, and infectious disease data of major public health importance provided by public health agencies.
-1.3 Roles and Responsibilities
-Data Engineer: Responsible for data collection and preprocessing.
-Data Analyst: Performs exploratory data analysis and visualization.
-Machine Learning Engineer: Develops predictive models.
-Data Scientist: Designs the overall analytical framework.
-Epidemiologist: Provides domain-specific knowledge and validates models.
-1.4 Project Process
-Data Collection:
-	Data engineers set up data pipelines to gather relevant data from health departments, mobility and travel databases, social media, and environmental sensors (Brownstein, 2008).
-Data Analysis:
-	Data analysts perform visualization and statistical analysis to understand the spatial and temporal trends of the outbreak.
-Model Development:
-	Machine learning engineers create predictive models using Deep Learning and Big Data techniques, such as the deep neural network (DNN), long-short term memory (LSTM) learning models (Chae, 2018), Compartmental models (Bershteyn, 2022) and spatiotemporal models (Angulo, 2013), to simulate disease spread.
-Validation and Insights:
-	Epidemiologists validate the model outputs, ensuring they align with known clinical and epidemiological knowledge. The results are used to generate actionable insights for public health responses.
-Deployment:
-	Develop dashboards and automated reporting tools to provide real-time updates and insights to public health officials, enabling informed decision-making.
-Feedback Loop:
-	Continuously update the models based on new data and outcomes of interventions to improve their accuracy and reliability.
-1.5 Expected Outcomes
-	A detailed report on the research process and results of this project.
-	Data science-based algorithmic systems that can identify real-time disease hotspots and predict disease spread.
-	Data-driven intervention recommendations for public health.
-2 Business Model
-2.1 Application Areas and Beneficiaries
-Government and International Organizations:
-	Internation health organizations (e.g., WHO, CDC) and local governments monitor health issues within a population and use insights from disease spread analysis to make informed decisions on public health measures, resource allocation, and emergency response planning.
-Medical institutions:
-	Hospitals, clinics, and other healthcare facilities can benefit from predictive insights to prepare better for patient influx, manage hospital resources, and minimize the spread within healthcare settings.
-Academic and Research Institutions:
-	Universities and research centers can use the data and models to conduct further studies on infectious diseases, advancing scientific understanding and contributing to global health knowledge.
-Pharmaceutical Companies:
-	Companies involved in drug development and vaccine production can use insights from disease spread analysis to focus their research efforts and expedite the development of effective treatments and vaccines.
-Public:
-	The public can obtain real-time information from epidemic trend forecasts, take personal precautions in advance, and reduce panic.
-2.2 Values and Challenges
-2.2.1 Values
-Integration of Diverse Data Sources:
-	Combining various data sources such as health records, mobility data, social media, and environmental databases represents a novel approach to understanding disease spread. This holistic view allows for more comprehensive analysis and better-informed public health decisions.
-Advanced Modeling Techniques:
-	Utilizing state-of-the-art modeling techniques beyond traditional methods. The models capture the complexities of disease spread more accurately, considering factors like human behavior, interventions, and environmental influences.
-Feedback Loop for Continuous Improvement:
-	Implementing a feedback loop where models are continuously updated based on new data and intervention outcomes is an innovative way to enhance model accuracy and reliability over time. This adaptive approach allows for the system to evolve and improve dynamically.
-2.2.2 Challenges
-Modeling Complexity:
-	Accurately capturing the complexities of disease spread in models, considering factors like human behavior, interventions, and environmental influences. This requires advanced modeling techniques and continuous validation and calibration.
-Interdisciplinary Collaboration:
-	Seamless collaboration between data scientists, epidemiologists, and public health officials is crucial but can be challenging. Effective communication and coordination are necessary to ensure that all perspectives are considered and that the models are both technically and scientifically sound.
-Ethical Considerations:
-	Ensuring ethical handling of sensitive data and maintaining privacy while conducting comprehensive research. Compliance with data protection regulations and maintaining public trust is a significant concern.
-References
-Angulo, J., Yu, H. L., Langousis, A., Kolovos, A., Wang, J., Madrid, A. E., &amp; Christakos, G. (2013). Spatiotemporal infectious disease modeling: a BME-SIR approach. PloS one, 8(9), e72168.
-Bershteyn, A., Kim, H. Y., &amp; Braithwaite, R. S. (2022). Real-time infectious disease modeling to inform emergency public health decision making. Annual Review of Public Health, 43(1), 397-418.
-Brownstein, J. S., Freifeld, C. C., Reis, B. Y., &amp; Mandl, K. D. (2008). Surveillance Sans Frontieres: Internet-based emerging infectious disease intelligence and the HealthMap project. PLoS medicine, 5(7), e151.
-Chae, S., Kwon, S., &amp; Lee, D. (2018). Predicting infectious disease using deep learning and big data. International journal of environmental research and public health, 15(8), 1596.
-Simonsen, L., Gog, J. R., Olson, D., &amp; Viboud, C. (2016). Infectious disease surveillance in the big data era: towards faster and locally relevant systems. The Journal of infectious diseases, 214(suppl_4), S380-S385.
 </t>
   </si>
   <si>
@@ -1761,78 +1693,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> 
-Business and Data Case Study
-FIT5145  Proposal of  
-Optimising NBA Defensive Strategies
-Through Machine Learning and Data Science
-─
-Your Name
-Haoze CHENG 30940656
-Introduction
-“Offense sells tickets, but defence wins championships.” 
-–Bear Bryant
-The National Basketball Association, one of the most significant sports leagues globally, has a broad market. As stated above, defence is the most critical factor in basketball. Since the NBA's inception in 1946, statistics have been used to monitor player and team performance. In the early years, these stats were relatively simple, focusing on basic metrics like points scored, shots made and attempted, free throws made and attempted, and fouls.[1]Recently, more detailed stats have been recorded, creating a significant opportunity for machine learning to use them to analyse the player's behaviour and find the gap in their offensive game. This proposal explores how the NBA can use advanced data tools to improve players' defensive strategies. 
-Project Description
-Currently, specialised NBA teams analyse player movements and behavioural patterns to identify weaknesses and tailor strategies. However, this manual process is time-consuming and often focuses only on star players, becoming incredibly challenging during the playoffs due to analyst shortages.
-To improve efficiency, we propose a machine learning solution that uses open-source tools and integrates APIs from data sources like NBA stats. This will automate the analysis, providing timely and accurate evaluations of all players' defensive capabilities. The models will predict shooting tendencies and offensive moves, generating comprehensive reports that enhance defensive strategies.
-The responsibilities for this project will be divided among various data science roles. Data scientists will develop and train the machine learning models, while data analysts will integrate the model predictions into comprehensive reports. Machine learning engineers will maintain and update the models as new data becomes available, ensuring their accuracy and reliability. Finally, sports analysts will interpret the results and collaborate with coaches to apply these insights effectively during games.
-Business Model
-Business area: Sports company, specialised in basketball.
-Purpose of the Project: Reinforce the accountability and efficiency of player and gameplay analysis specifically for boosting defence gameplay.
-Benefit: 
-Predict the gameplay for the opponent and provide defensive feedback
-Dramatically improve Time efficiency on game analysis during the tight schedule in playoffs, making the analysis right on time.
-Lower the cost of hiring more player analysis.
-Enhanced Defensive Performance on your team.
-Make the team more flexible and dynamic in the defensive gameplay.
-Beneficiaries:
-Coach: The coach can use the analysed report to create a better game plan and anticipate key players' moves, allowing for quick adjustments during the game.
-Player/Video Analysis: This system provides more transparent and user-friendly analysis, helping analysts optimize defensive strategies and analyse opponents' gameplay.
-Player: Players can focus on critical weaknesses in their opponents, better preparing them to anticipate habits during the match.
-Potential Risks and Challenges: 
-Complexity of Training the Analysis Model: Training the model is challenging due to the unpredictability of each match, requiring close collaboration between ML engineers and game analysts.
-Limitations of Strategy and Game Planning: If the defence is too focused on predicted patterns, the actual gameplay might diverge from these expectations, leading to vulnerabilities.
-Data Privacy and Security: Ensuring the responsible management of sensitive player data to maintain privacy and uphold trust.
-Cost and Resources: Tackling the significant initial investment required for advanced technology and skilled personnel.
-Example of how the model works using 
-Heat map: These diagrams from Stephen Curry and Ben Simmons reveal distinct patterns—Curry consistently attempts more three-point shots and some lay-ups, while Simmons rarely takes three-point shots. This is just one aspect of what a heat map can show. 
-Behaviour and Analysis demo based on NBA stats: Similar data will be fed into the model to see how the pattern of their game blends with the video analysis. A comprehensive report of a player's offensive game will be demonstrated, and no gap will be covered.
-Example STATS: 
-Stephen Curry 
-Ben Simmons
-Height
-191cm
-208cm
-Weight
-84 kg
-109 kg
-Lhd or rhd 
-Right-handed
-Left-handed
-Cut in or faded out 
-Faded out 
-Cut in
-Avg . Point per Game
-26.4 Point 
-6.1Point
-Powered by Fanspo.
-`Now, guarding Stephen Curry demands aggressive perimeter defence and vigilance in his off-ball movements. For Ben Simmons, defenders should prioritise clogging driving lanes, maintaining physicality in the paint, and disrupting his playmaking. Tailoring defensive strategies to their distinct strengths and weaknesses is essential for minimising their impact on the game.
-Sustainability:
-Cooperate with The league to give direct process data
-Work with the trainer and NBA team to maintain long-term cooperation
-Get supposer from a university or sports company to operate and maintain the big model
-Calibrate with the university and pro player to train the model. 
-Reference
-Jr. NBA. Basic/traditional stats vs. advanced stats. https://jr.nba.com/basictraditional-stats-vs-advanced-stats
-Huyghe, T., Alcaraz, P. E., Calleja-González, J., &amp; Bird, S. P. (2021). The underpinning factors of NBA game-play performance: a systematic review (2001–2020). The Physician and Sportsmedicine, 50(2), 94–122. https://doi.org/10.1080/00913847.2021.1896957
-Fanspo. (Accessed 23/08/2024). Stephen Curry vs. Ben Simmons: Compare players. Fanspo. https://fanspo.com/nba/compare-players/stephen-curry-201939/ben-simmons-1627732
-NBA.com.Accessed 23/08/2024 . Player stats. NBA. https://www.nba.com/stats/player
-StatMuse. (Data retrieved 23/08/2024 ). Ben Simmons shot chart. StatMuse. https://www.statmuse.com/nba/ask/ben-simmons-shot-chart
-StatMuse. (Data retrieved 23/08/2024). Career heatmap of shots by Stephen Curry. StatMuse. https://www.statmuse.com/nba/ask/career-heatmap-of-shots-by-stephen-curry
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">Adaptive AI-Driven Cheating Detection for Online Games
 1. Project description
 Online real-games gradually became the main entertainment method for many young people after COVID-19. However, a problem that has long-term influences on the games industry raised again with the increase of players, which is cheating behaviors. According to the research, online multiplayer competitive games are the most vulnerable to cheating such as Apex Legends, PUBG and Valorant. Players will feel frustrated when losing to cheaters who use the aimbot, thus losing enthusiasm for the game. The purpose of this project is to create an adaptive AI system that can dynamically identify and respond to emerging cheating behaviors in real time. The system combines the strengths of supervised and reinforcement learning to stay ahead of cheaters by constantly updating its detection algorithms based on new data and changing cheating strategies.
@@ -2858,37 +2718,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Predicting wheat yield based on soil data
-Author: Riley Hackwill (30610923)
-Project Description
-Objective
-This project aims to use modern machine learning and data techniques to build a tool capable of predicting the amount of sellable wheat (in tonnes) produced per unit of area planted. The data used for these predictions will include measurements of compounds in the soil such as zinc and potassium [1], which are essential for plant growth. It will also include soil state indicators such as pH level and moisture content which are similarly important for optimal growing conditions [2]. By predicting these outcomes, farmers will be able to make a more informed decision about the area of crop they should plant and make better estimates of their expected yields to plan their finances and future crop seasons.
-Data Science Roles Involved
-Data Engineer: the role of the engineer is to source and compile the data into one dataset on which a model can be trained upon. Data may need to be taken from different sources such as regional soil health data joined with the regional wheat production for regions with a high portion of their crops reported as wheat. They will also be responsible for all cleaning and pre-processing of data.
-Agricultural Specialist: they will require expertise in soil science and crop management. They will be responsible for providing insights on the data as an expert in the field. They will work with the data engineer to ensure data quality and relevance and will help validate the predictions made. 
-Data Scientist: responsible for training the model to predict based on the curated data. This will involve choosing and comparing potential models and optimising them to achieve best performance for the task provided. Additionally, they will ensure the interpretability of the model produced to maximise its usefulness.
-Business Model
-Application Area
-This project focuses on the field of agriculture, with a particular focus on improving information available to farmers and in doing so improve decision making around planting crops, particularly wheat. It aims to do this using machine learning tools to gather greater insight on data with extremely high dimensionality. While focused on wheat similar techniques could be used for other crops in the future.
-Benefits
-More informed planting: by having an idea of their expected returns and outcomes for a crop, farmers will be better able to decide what crop to plant and how much of it. 
-Better financial planning: by having a better estimation of their total produce, farmers may be able to better plan their finances for the future as they will have a closer estimation of their return on investment.
-Insight into optimal growing conditions: a machine learning model may be able to shed greater light on the complex interactions between minerals and other soil properties that lead to favourable or unfavourable growing conditions, potentially beyond what current understanding.
-Beneficiaries
-Farmers: this tool is primarily to increase the information available to farmers. It may allow them to better plan their planting and finances.
-Consumers: end market buyers may see reductions in cost if the conditions for planting the crop are optimisable because of this data.
-Challenges
-The primary challenge here is finding data. Although some data exists about soil health and data does exist about crop sale prices and gross produce, they exist separately. There is no readily available data that is usable immediately and instead data from multiple sources such as research institutions and must be merged to build a suitable dataset with which to train this model.
-Additionally, the model must have a high accuracy to be worth using. Many farmers have extensive experience and will be able to out predict a weak model either by looking at numbers themselves or simply using intuition. For this reason, the model requires a high accuracy to be worth the farmer’s time.
-The model must also be interpretable. There may be no correlation that is clear from the models’ decisions as to why it predicts one way or another. If this is the case it may be useful for individual decisions but will be unable to help build greater understanding of the conditions that create the most crop.
-Acknowledgements
-I acknowledge that the units provided flora gpt was used to help write this report. It was used to generate examples of formatting, find data sources and provide feedback on the report itself.
-References
-[1] Rawal, N., Pande, K. R., Shrestha, R., &amp; Vista, S. P. (2022). Nutrient use efficiency (NUE) of wheat (Triticum aestivum L.) as affected by NPK fertilization. PLOS ONE, 17(1), e0262771. https://doi.org/10.1371/journal.pone.0262771
-[2] Killian, J., Ketterings, Q., Czymmek, K., Stanyard, M., &amp; Cox, B. (2011). Fertility Management of Winter Wheat Agronomy Fact Sheet Series. http://nmsp.cals.cornell.edu/publications/factsheets/factsheet65.pdf
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">1.Project introduction
 The objective of the project is to develop a prototype model for stock price prediction using historical data and machine learning algorithms in Australia market. Predicting stock prices is essential for developing investment strategies and optimizing trading systems. Data-driven methods can provide accurate insights into financial markets, allowing investors to make informed and timely decisions.
 The project involves several key data science roles, each with distinct responsibilities,
@@ -3449,63 +3278,6 @@
 Boyle, M. (2021). Know What Causes Inflation and Who Profits from it. Investopedia. https://www.investopedia.com/ask/answers/111314/what-causes-inflation-and-does-anyone-gain-it.asp
 Kliesen, K. L. (1994, July 1). Commodity Price Indexes: Can They Predict Inflation? Federal Reserve Bank of St. Louis. https://www.stlouisfed.org/publications/regional-economist/july-1994/commodity-price-indexes-can-they-predict-inflation
 Yosifova, A. (2022, October 7). The Types of Data Science Roles Explained. 365 Data Science. https://365datascience.com/career-advice/types-of-data-science-roles-explained/
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">How schools can earlier predict results of students based on their emotional state
-Ibrahim Ibrahim 33669546 
-Data Science Project
-Education
-Project Description 
-Being able to accurately predict a student’s outcome before they have even taken a test, would be a revolutionary feature for educators. This would allow them to intervene earlier in the students’ academic progression. The belief is that before tests or assessments that students may perform poorly in, they would have already been exhibiting a behavioural shift. Such changes may be gradual change meaning educators would miss the signs. This project aims to give schools the tools to earlier detect these behavioural changes amongst the students to be able to give support earlier.
-Required roles for this project is a data scientist, a data analyst, a data engineer, a system architect, and a software engineer. The data scientist would be required for the collecting and storing of the video data, the processing of value information such as movement, and facial expressions, from the videos. They would also be required to create a model based on these features to predict academic performance. The data analyst would be responsible for analysis the data of the product to see if teachers are finding the solution valuable in improving their students’ performance. The data engineer would be responsible for organise and maintaining the large volume of data required. The software engineer would be responsible for building out the software product for schools.
-Business Model
-This project falls within the EdTech sector and targets K-12 schools, higher education institutions, and online learning platforms. The primary objective is to provide an early intervention system that uses students' emotional data to predict academic performance, thus allowing educators to offer timely support to students who may be at risk.
-Benefits/Values:
-1. For Students:
-- Early Support: Students receive timely interventions, which can help improve their academic performance and emotional well-being.
-- Personalized Learning: Tailored educational support based on individual emotional and academic data.
-2. For Teachers:
-- Proactive Intervention: Enables teachers to identify at-risk students early and provide targeted support.
-- Data-Driven Insights: Empowers educators with actionable insights to make informed decisions about instructional strategies.
-3. For Schools/Institutions:
-- Improved Outcomes: Better academic performance and emotional well-being metrics can enhance the school's reputation.
-- Resource Optimization: More efficient allocation of resources to areas where they’re most needed.
-Subscription Model:
-1. Tiered Subscription Plans:
-- Basic Plan:
-- Features: Basic emotional state detection and performance prediction, limited data analytics, basic reporting.
-- Target Users: Small schools, primary education providers.
-- Standard Plan:
-- Features: Advanced emotional state detection, enhanced predictive models, comprehensive analytics, and reporting tools.
-- Target Users: Medium to large schools, secondary education providers.
-- Premium Plan:
-- Features: Fully customizable features, integration with existing school management systems, real-time data processing, dedicated support, and training.
-- Target Users: Large schools, school districts, higher education institutions.
-2. Revenue Model:
-- Monthly/Annual Subscriptions: Schools can subscribe on a monthly or annual basis, with discounted rates for longer commitments.
-- Volume Discounts: Discounted pricing for schools that enroll a larger number of students or multi-school subscriptions within a district.
-3. Customer Support and Training:
-- Onboarding Assistance: Initial setup and training to get schools started with the platform.
-- Ongoing Support: Continuous technical support, troubleshooting, and updates.
-- Professional Development: Workshops and training sessions for educators on effectively using data to support students.
-Challenges:
-1. Data Privacy and Security:
-- Encryption: All student data must be encrypted to ensure privacy and security.
-- Compliance: Adhering to regulations such as FERPA (Family Educational Rights and Privacy Act), GDPR (General Data Protection Regulation), and COPPA (Children's Online Privacy Protection Act).
-2. Accuracy and Reliability:
-- Emotion Detection: Ensuring the accuracy of emotional detection and the reliability of predictions is crucial.
-- Bias Mitigation: Developing unbiased models to ensure fair and accurate predictions across diverse student populations. A baseline needs to be established per person.
-3. Integration with Existing Systems:
-- Seamless Integration: Ensuring the platform can integrate seamlessly with existing school management and learning management systems.
-- Data Interoperability: Facilitating the interoperability of data between different systems and maintaining data integrity.
-4. User Adoption and Training:
-- Change Management: Helping schools transition to using data-driven approaches for student support.
-- Training Programs: Comprehensive training programs for teachers and staff to maximize the platform’s benefits.
-Conclusion:
-Offering a subscription-based platform for predicting student outcomes based on emotional states can provide significant value to all stakeholders involved. By addressing potential challenges and focusing on the key benefits, this platform can become an essential tool for modern educational institutions to support students more effectively.
-References
-AI was used in the generation of this response. It is directly responsible for the output of the business model.
 </t>
   </si>
   <si>
@@ -3972,12 +3744,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Project Description: 
-Business Model:
-References: 
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">Project Descripton
 1.1. Introduction
 In today's modern world, childhood obesity and stunting are two critical public health challenges that affects millions of children worldwide. Surprisingly, these issues are rooted from the same cause, which relates to exercise and food consumption. (citation regarding obesity). (citation regarding nutrition). Addressing these challenges requires a multifaceted approach that integrates personalized dietary with continuous monitoring and feedback. 
@@ -4672,58 +4438,6 @@
 https://www.bmc.com/blogs/system-architect/#:~:text=System%20architects%20work%20closely%20with,business%20goals%20and%20user%20needs.
 Trust and Compliance. (n.d.). LinkedIn Security. Retrieved from
 https://security.linkedin.com/trust-and-compliance
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FIT5145
-vGameReviews: Bridging Gaming Insights with Research through an R Package
-32186835
-Xinxiang Liu
-Project Description: vGameReviews R Package Development
-The vGameReviews project focuses on developing an open-source R package designed to facilitate the retrieval and analysis of video game reviews from the Steam platform. The primary objective of this project is to enhance the accessibility of valuable datasets related to both casual and serious games, enabling researchers from various disciplines—such as education, health, urban planning, and technological development—to leverage user-generated content for their studies.
-Objectives:
-1. To provide a user-friendly interface for accessing and downloading video game reviews without requiring advanced coding skills.
-2. To improve the reproducibility of data acquisition methods by documenting exact searches within the R environment.
-3. To enable researchers to analyze user feedback to inform the development of serious games and enhance understanding of user experiences.
-Data Science Roles Involved:
-1. Data Scientist:
-  - Responsibilities:
-    - Analyze the collected video game reviews to extract insights regarding user experiences and sentiments.
-    - Utilize natural language processing (NLP) techniques to classify and assess reviews, identifying trends and patterns in user feedback.
-    - Collaborate with researchers from various fields to understand their data needs and tailor analyses accordingly.
-2. Data Engineer:
-  - Responsibilities:
-    - Develop and maintain the backend infrastructure for the vGameReviews R package, ensuring efficient data retrieval from the Steam API.
-    - Implement data pipelines that facilitate the collection, storage, and processing of large volumes of review data.
-    - Ensure data quality and integrity by establishing validation processes and monitoring data flows.
-3. System Architect:
-  - Responsibilities:
-    - Design the overall architecture of the vGameReviews package and its associated Shiny application, ensuring scalability and performance.
-    - Oversee the integration of various components, including the API calls, data storage solutions, and user interface elements.
-    - Collaborate with data scientists and engineers to ensure that the system meets the functional requirements of end-users.
-By combining the expertise of data scientists, data engineers, and system architects, the vGameReviews project aims to create a robust tool that democratizes access to video game review data, ultimately fostering innovative research and development in the gaming industry and beyond.
-Benefits and Value Creation:
-1. Enhanced Research Capabilities:
-  - The vGameReviews R package allows researchers to easily access and analyze a wealth of video game reviews, facilitating studies that can lead to improved understanding of user experiences and preferences. This can enhance the development of both casual and serious games.
-2. Informed Game Development:
-  - Game developers can leverage insights from user reviews to refine their products, ensuring that they meet the needs and expectations of players. This can lead to higher user satisfaction and increased sales.
-3. Cross-Disciplinary Applications:
-  - The project enables the application of gaming insights in various fields, such as education (for developing educational games), health (for serious games aimed at wellness), and urban planning (using game mechanics for public engagement). This cross-disciplinary approach can foster innovation and collaboration among different sectors.
-4. Accessibility for Non-Technical Users:
-  - By providing a user-friendly interface through the Shiny application, the project democratizes access to data analysis tools, allowing non-data scientists to engage with video game data. This can empower educators, health professionals, and urban planners to utilize gaming insights without needing extensive technical skills.
-Challenges:
-1. Data Accessibility and API Limitations:
-  - While the Steam API provides access to game reviews, there may be limitations in the volume and type of data available. Ensuring comprehensive data collection while adhering to API usage policies can be challenging.
-2. Data Quality and Noise:
-  - User-generated content can be noisy and subjective. Filtering out irrelevant or low-quality reviews to extract meaningful insights requires robust data processing and analysis techniques.
-3. Technical Maintenance:
-  - As the gaming industry evolves, the vGameReviews package will need ongoing updates and maintenance to ensure compatibility with changes in the Steam API and to incorporate new features based on user feedback.
-4. User Adoption:
-  - Encouraging researchers and practitioners from various fields to adopt the vGameReviews package may require targeted outreach and education about its capabilities and benefits.
-In summary, the vGameReviews project has the potential to create significant value across multiple sectors by providing accessible tools for analyzing video game reviews. However, it must navigate challenges related to data access, quality, and user engagement to realize its full potential.
-References:
-Fox, N., Van Berkel, D., Serrano Verge, R., &amp; Lindquist, M. (2023). vGameReviews: An R package for harnessing video game reviews for scientific research. SoftwareX, 23, 101423. https://doi.org/10.1016/j.softx.2023.101423
-link between pcakage deve
 </t>
   </si>
   <si>
@@ -5964,10 +5678,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">s
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">Analyzing the Competitive Dynamics of the 2024 Summer Olympics: A Focus on Medal Distribution and National Performance
 Project Description
 The 2024 Summer Olympics in Paris showcased how data analytics can influence the competitive landscape of global sports. This project analyzes the medal distribution among participating nations, focusing on the factors behind the success of top-performing countries. By examining investments in sports infrastructure, athlete development, and performance optimization, the study aims to identify the key drivers of Olympic success.
@@ -6506,56 +6216,6 @@
 Data Privacy and Security: Handling sensitive patient data introduces various challenges related to privacy, security, and regulatory compliance. Patient data must always be kept securely stored and confidential to uphold the integrity of the research process and maintain trust between patients and healthcare providers. Managing this across various stakeholders, including pharmaceutical companies, clinical trial organizations, and healthcare institutions, is crucial.
 Integration of Heterogeneous Data: Combining data from various sources, including clinical data, genetic information, and chemical compound databases, is a challenging task that requires sophisticated data preprocessing techniques.
 Complexity of Biological Systems: Biological systems as well as their drug interactions are inherently complex, making it difficult to model them accurately.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name: Saldi
-Student ID: 33780331
-Project Title
-Leveraging Sentiment Analysis of Amazon Product Reviews: Extracting Consumer Insights and Trends
-Project Description
-Business Project Description:
-Understanding consumer sentiment is crucial for maintaining a competitive advantage and ensuring consumer satisfaction in the rapidly evolving digital retail landscape. This project aims to leverage sentiment analysis to evaluate customer reviews on Amazon. By analyzing the emotional tone, frequency of keywords, and overall sentiment polarity in product reviews, we seek to uncover deep insights into consumer satisfaction and preferences. These insights can guide product improvements, optimize marketing strategies, and enhance customer experience.
-Business Objectives:
-Develop a Sentiment Analysis Model: Create a machine-learning model to classify customer reviews.
-Identify Consumer Insights: Extract and analyze sentiment data to identify trends and insights related to consumer satisfaction and areas of concern.
-Enhance Product Offerings and Services: Use insight from sentiment analysis to guide product development and improvement efforts.
-Optimize Marketing Strategies: Tailor marketing campaigns and engagement tactics based on the insights derived from consumer sentiment.
-Data Science Roles and Responsibilities:
-		Data Scientist
-Design and Implementation: Develop and implement machine-learning models for sentiment classification using libraries such as tm, textdata, tidytext, or similar.
-Model Training and Validation: Train models on labeled datasets and perform validation to ensure accuracy.
-Feature Engineering: Create features like n-grams, TF-IDF vectors, and sentiment scores to enhance model performance.
-		Data Engineer
-Data Collection: Extract review data from Amazon using web scraping tools
-Data Preprocessing: Clean and preprocess the data to handle missing values, punctuation, and stop words.
-Data Storage: Manage efficient storage and retrieval of large volumes of review data using a cloud storage solution. 
-		System Architect
-Infrastructure Design: Design a scalable infrastructure capable of handling large-scale data processing and real-time analytics.
-Integration: Using cloud technologies like Google Cloud, ensure seamless integration of sentiment analysis tools with existing business systems.
-Scalability: Implement distributed computing frameworks like Hadoop or Spark to support large-scale sentiment analysis.
-		Business Analyst
-Insight Interpretation: Analyze sentiment analysis results to derive actionable business insights.
-Reporting: Create reports and visualization to communicate findings to stakeholders using tools like Tableau.
-Strategy Formulation: Use insight to develop product development, marketing, and customer service business strategies.
-Business Model
-Application Areas:
-E-Commerce Sector: This mainly benefits businesses operating on platforms like Amazon. By understanding customer sentiment, companies can frame better strategies, improve product features, and offer superior services, leading to increased customer loyalty and sales.
-Expected Benefits:
-Improved Customer Satisfaction: Address concerns raised in negative reviews and amplify aspects appreciated in positive reviews.
-Product Development: Gain insights that inform product design and feature enhancements, leading to better market fit.
-Marketing Optimization: Tailor marketing message to align with customer sentiments, increasing engagement and conversion rates. 
-Competitive Advantage: Use sentiment insights to stay ahead of competitors by efficiently meeting customer needs.
-Benefit Targets:
-E-commerce Businesses: Enhance products and customer service based on customer feedback.
-Product Managers: Understand consumer needs better, guiding product development.
-Marketers: Optimize strategies to improve engagement and conversion rates based on sentiment analysis.
-Consumers: Benefit from improved products and services tailored to their preferences.
-Challenges:
-Data Privacy and Security: Ensure that the collection and analysis of review data comply with privacy regulations.
-Data Quality: Manage noisy and unstructured data to ensure accurate sentiment analysis.
-Model Accuracy: Develop models capable of accurately classifying sentiment and understanding nuanced customer feedback.
-Integration: Seamlessly integrate sentiment analysis insights into existing business workflows and decision-making processes.
 </t>
   </si>
   <si>
@@ -8407,10 +8067,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Project Description: 
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">Project Description
 Introduction
 In Australia where rainfall can be both unreliable and insufficient, irrigation is essential to support agricultural crop growth. The goal of irrigation is to encourage plant growth while minimising soil erosion and water loss. (Goulburn Valley Sprinklers &amp; Landscaping, 2020). Agriculture is an industry that relies heavily on water resources. Inefficient irrigation can lead to water waste, reduced crop yields and increased costs. Traditional irrigation methods often lack precision, leading to over-irrigation or under-irrigation. Therefore, our goal is to use drones equipped with high-resolution cameras and multispectral sensors to integrate data science to collect real-time data on soil moisture levels, crop health and environmental conditions. This data will be analyzed using machine learning algorithms to make precise irrigation recommendations, thereby improving water use efficiency, increasing crop yields and reducing resource waste.
@@ -8868,53 +8524,6 @@
 Fit5145 Assignment1
 of emotions can detect the changes in social opinion, which is also useful in preventing the occurrence of social malpractices.
 However, the project also faced a lot of challenges, for example, in the data collection phase of the project, because the amount of user data is very complex, such as a variety of punctuation marks, different forms of text, emoticons, the team needs a lot of data cleaning to ensure the quality of the data. Secondly, the user interaction data belongs to the private data, the team needs to pay attention to the use of the number of data specifications. This project has high requirements for the architecture of the analysis system, because the number of social media users is large, the data update speed is fast, so the model and the analysis software should have good performance to ensure the work of normal.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Project Title: Enhanced Coaching Decisions: Data-Driven Strategy Design and Real-Time Tactical Adjustments in Football
-Student name: Yue Wu
-Student ID: 33594309
-1 Project Description
-1.1 Introduction
-As the world's most popular sport, football always attracts great attention. With the integration of technology, modern football is developing to a higher level, and the competition has become fierce. Today, we will see that data science plays a very important role in the field of football. The coaches of each team, although they cannot play on the field like players, are the key factor in the success of a team. With the strong support of data science, today's coaches can make more accurate decisions than ever before and see some insights that may not be discovered by the naked eye to better help the team succeed. This project aims to use data science to assist football coaches in designing pre-match strategies and in-match real-time adjustments. Our work includes collecting and analyzing different data such as historical data, player statistics, and real-time match data and providing coaches with valuable insights and the optimal decision of the match.
-1.2 Project Objectives
-Our objective is to:
-  Design Data-Driven Pre-Match Strategies: Develop a model that can recommend reasonable tactics and formations is generated based on historical data, recent performance data of the team's players, and technical characteristics data of the opponents.
-  Real-Time Tactical Adjustments: Develop a system that records real-time match statistics for necessary adjustments and a data visualization tools to simplify the complexity of data to help coaches intuitively grasp the situation on the field and make necessary responses in a timely manner.
-1.3 Data Science Roles Involved and their responsibilities
-  Data Analyst
-Collect and analyze match data (e.g., player performance, opposition tendencies, match statistics) and generate reports and visualizations to help the coaching staff understand trends and patterns for both pre-match and in-game strategies.
-  Data Engineer
-Develops and maintains data pipelines, ensuring real-time data collection and integrate data from various sources (match data, training data, external databases) into a cohesive system for analysis
-  Data Scientist
--      Build predictive models to forecast player and team performance, analyzing factors such as player movements, stamina, and tactical effectiveness.
--      Design algorithms for real-time decision-making during matches, such as suggesting optimal formations or substitutions based on match data.
--      Apply machine learning techniques to improve tactical design and analyze opposition patterns.
-  System Architect
-Designs the infrastructure to handle large-scale, real-time match data for efficient processing and analysis.
-  Project Manager
-Oversees the project’s scope and timeline, ensuring collaboration between the team and alignment with coaching needs.
-2 Business Model
-2.1 Value Proposition
-  Description of the Solution:
-Our data science solution enhances football coaching by combining real-time data analytics, predictive modeling, and visualization tools to support both pre-match tactical planning and in-game adjustments. The system gathers data from player sensors and match footage, offering real-time insights into player performance and team dynamics.
-  Unique Benefits:
-Unlike traditional methods, this solution provides coaches with data-driven, real-time insights that allow for quick adjustments based on player fatigue, opponent tactics, and match flow. The use of predictive analytics offers a clear advantage by anticipating potential outcomes and providing optimal strategies for success.
-2.2 Benefits and Values
-  Performance Improvement:
-This tool helps teams enhance performance, improve tactical decisions, quickly response to in-game situations, effectively adjust strategies and reduce the risk of injury through optimized player management.
-  Cost Efficiency:
-It reduces the need for manual scouting and helps maximize player utilization, offering cost savings for clubs.
-  Target Customers:
-- Primary Customers: Football coaches and team managers seeking to optimize their strategies.
-- Secondary Customers: Club analysts, scouts, and players looking for detailed performance insights.
-2.3 Challenges and Risks
-  Technical Challenges:
-Challenges include integrating multiple data sources, processing real-time data efficiently, and ensuring predictive model accuracy.
-  Ethical Considerations: 
-Relying heavily on data might raise ethical concerns, such as infringing on player privacy or making decisions that prioritize data over player well-being.
-  Data Quality and Reliability: 
-The effectiveness of the solution is highly dependent on the quality of the data collected. Inaccurate or incomplete data can lead to misleading insights and poor decision-making.
 </t>
   </si>
   <si>
@@ -9207,36 +8816,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Game Balance Optimization in Online Games through Data-Science
-Abstract 
-	This project focuses on how to optimize online game's balance by using data-science techniques. Game balancing is a crucial part for online game, which can significantly impact its future. Unlike the oldschool way (e.g., forming a balancing team), we aim to implement data-science techniques such as predictive data analysis. This project will collect and analyze players' performance data, item usage, in-game statistics, economics, etc., thus ensuring a fun, fair, unique, and everlasting gaming environment and experience for players. 
-Introduction
-	 Balancing has always been a pain point for the gaming industry, especially for online gaming. A bad balancing choice might cause massive attrition (for example, Tekken 8’s average concurrent users experienced a sharp decline and received numerous negative feedbacks) while good choices can revive a dying game (for example, Street-Fighter 6, Tekken’s biggest rival, saw its reputation significantly boosted after a series of wise balancing choices). Game companies usually form a balancing team to get the job done, but this seems outdated since the size of both game and gamer-base has been rapidly increasing. Therefore, it's the showtime of data-science. Unlike the old-school manual balancing style, data-science focuses on the user's data we collected, which is more accurate and efficient.
-Project Description 
-•       Objective: This project is to find a better way of game balancing by using data-science tools. 
-•       Scope: This project is focusing on balancing in-game characters, items, the reward system of winning and losing for online games. 
-•       Methodology: 
-o  Data Collection: We will collect user data such as gameplay styles, average KDA, item usage per-game, win/loss rate per-character, etc. 
-o  Data Cleaning and Processing: Format the data, make it easier to read/use, deal with missing values, normalize statistics, preparing for further analysis. 
-o  Data Analysis: That’s the most important part, by conducting statistical analysis and using machine learning to identify imbalances in the game, make balancing easier. 
-o  Model Development: Develop a model to simulate possible scenarios after certain balancing moves and predict possible effects to help deciding. 
-o  Implementation: Provide data-driven suggestions for balancing choices, together with the existing balancing team to make wiser choices. 
-•       Roles and Responsibilities: 
-o  Data Scientist: Project leader, responsible for analysis, model development, and interpreting results. 
-o  Data Engineer and Analyst: Responsible for data collecting, cleaning, processing, maintaining data pipeline, performing initial exploratory data analysis, visualizing the findings. 
-o  Balancing Team: Last stop of this project, combining the data analysis results and previous experiences to make the most efficient balancing choices. Business Model 
-•       Application Area: This project is situated in the gaming scene and focuses on game design and player experience. 
-•       Value Proposition: This project could help game developers make game fair. By doing so, players experience shall be improved, and provide positive feedback, leads to long-term retention, along with growth and profit for the developers and publishing companies—a win-win situation. 
-•       Target Beneficiaries: Developers can balance the game easier and more efficiently, while players shall find the experience more enjoyable. 
-•       Challenges: 
-o  Data Complexity: Online games have large player population, leads massive data for developers to collect and maintain. Not to mention the playstyle is differ from player to player. Since every player should be considered during the balancing process, it's a big challenge for the project members to find an efficient way to utilize the data. 
-o  Dynamic Nature of Games: Updates are a significant part of modern games, requires continuous adaptation of the model and other techniques. 
-o  Communication with Community: It's very important to ensure that our next move is acceptable to most of the players. Data, unlike humans, it’s zero-emotional. Some changes might look just right according to the analysis but turns out to be unacceptable for players when it comes to life. For 
-example, Tekken 8, one of the biggest fighting games on earth, chose to simplify inputs to make the game more beginner-friendly, but the result is out of handed. Beginners still tended to give up on game after trying, while veteran players became very angry because they felt like it’s a betrayal of their long-term training. 
-Jinze Xiong 34312935 
-</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 
 Project Description
 A typical example of data science in education is the prediction of student performances. The first step is to collect enough historical data on student performances. Common approaches include test results, attendance, participation, learning management systems, extracurricular activities and parents’ involvement. The second step is data cleaning and normalization. Also, we need to identify variables which can predict student performances. The third step is to do statistical analysis and visualization. The fourth step is to select algorithms and feed data into the algorithm. The fifth step is to evaluate the model via cross-validation, metrics and so on. The sixth step is deployment. We integrate the model into a prediction system and monitor the model’s performances. The seventh step is intervention based on the prediction results.
@@ -10662,12 +10241,692 @@
   <si>
     <t>7.5</t>
   </si>
+  <si>
+    <t>1. Project Description
+ Sports supplements are widely used by athletes to enhance performance and recovery.
+ These supplements range from basic vitamins and minerals to complex protein powders,
+ creatine, amino acids, and other ergogenic aids (OpenAI, 2024). Analysing these
+ supplements is crucial due to the rapid growth of the sports supplement market and
+ increasing consumer demand for effective and safe products. While some supplements are
+ supported by strong scientific evidence, others are promoted based on popular trends rather
+ than rigorous research. This discrepancy underscores the need to evaluate the effectiveness
+ of these products to help consumers make informed decisions and ensure they invest in
+ supplements that offer real benefits. By leveraging a dataset that includes information on
+ supplements, their claimed benefits, evidence levels, and popularity, this project aims to
+ investigate the relationship between scientific evidence and claimed fitness improvements.
+ The analysis will identify which supplements are supported by robust scientific research and
+ which are primarily driven by marketing hype without substantial evidence.
+ The roles and responsibilities in this project are crucial for delivering a
+ comprehensive analysis of sports supplements, providing insights to consumers,
+ manufacturers, and healthcare professionals. The data scientist will conduct statistical
+ analyses and develop machine learning models to evaluate the effectiveness of
+ supplements, including algorithms to predict their impact on different fitness aspects. The
+ data engineer will design and maintain the data pipeline, ensuring smooth collection,
+ storage, and processing of data. The system architect will design the overall system
+ architecture to support data processing and analysis, focusing on scalability, security, and
+ performance of the data infrastructure (Michalczyk, Nadj, Maedche, &amp; Gröger, 2021).
+2. Business Model
+ The sports supplements market is a dynamically growing sector, valued at $15.6
+ billion in 2019 and projected to grow at a CAGR of 8.9% from 2020 to 2027 (Tricarico, 2021).
+ This growth presents a significant opportunity for data-driven insights and innovation. The
+ project aims to provide a data-driven analysis of supplement effectiveness, benefiting a wide
+ range of stakeholders. Athletes and fitness enthusiasts will gain valuable information for
+ making informed decisions about supplement use, potentially improving their performance
+ and overall health outcomes. Supplement manufacturers can leverage the findings to refine
+ product formulations, enhancing consumer trust and boosting sales of effective products.
+ Healthcare professionals, including nutritionists, can use the insights to provide more
+ accurate and personalised recommendations, improving their practice and contributing to
+ better health outcomes (OpenAI, 2024).
+ A key challenge in examining the relationship between scientifically-backed sports
+ supplements and their claimed benefits lies in the variability of individual responses.
+ Different people react differently to supplements due to genetic, physiological, and lifestyle
+ differences, making it difficult to generalise findings across diverse populations. Additionally,
+ the regulatory environment for performance supplements is inconsistent, with some
+ countries having less stringent regulations or allowing supplements with undisclosed
+ ingredients. This lack of standardisation can lead to discrepancies between claimed benefits
+ and actual effects, complicating the assessment of supplement efficacy (Burke, 2017).
+ Lastly, the rapid evolution of the market poses a significant challenge. As new products and
+ formulations continuously emerge, ongoing updates and analyses are necessary to ensure
+ that scientific evidence remains current and relevant. This constant change makes it
+ challenging to stay updated and accurately assess the project’s aims (OpenAI, 2024).
+ 3. References
+ Burke L. M. (2017). Practical Issues in Evidence-Based Use of Performance
+ Supplements: Supplement Interactions, Repeated Use and Individual Responses.
+ Sports medicine (Auckland, N.Z.), 47(Suppl 1), 79–100.
+ https://doi.org/10.1007/s40279-017-0687-1
+ Michalczyk, S., Nadj, M., Maedche, A., &amp; Gröger, C. (2021). Demystifying job roles in
+ data science: A text mining approach. In Proceedings of the 29th European
+ Conference on Information Systems (ECIS 2021) (Paper 115). Association for
+ Information Systems. https://aisel.aisnet.org/ecis2021_rp/115
+ OpenAI. (2024). ChatGPT-4. [Large language model].
+ Tricarico, V. (2021, September 14). Sports nutrition grows up: Behaviors, trends,
+ ingredients, and advancements driving today’s sports nutrition products.
+ Nutritional Outlook.
+ https://www.nutritionaloutlook.com/view/sports-nutrition-grows-up-behaviors-trend
+ s-ingredients-and-advancements-driving-today-s-sports-nutrition-products</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision Agriculture: Enhancing Crop Yield Prediction Using AI and IoT Sensors
+ The agricultural sector is undergoing a significant transformation driven by the adoption of
+ advanced technologies such as Artificial Intelligence (AI) and the Internet of Things (IoT).
+ Precision agriculture, a practice that leverages these technologies to monitor and manage
+ field variability, holds the potential to revolutionise farming by optimising crop production and
+ resource usage.
+ The primary objective of this project is to develop an AI-driven system that enhances the
+ accuracy of crop yield predictions. By deploying IoT sensors in agricultural fields, the project
+ will collect vast amounts of data, including soil moisture levels, temperature, humidity, and
+ satellite imagery. This data will be analysed using advanced machine learning algorithms to
+ create predictive models that offer actionable insights to farmers. These insights will enable
+ farmers to optimise their crop management practices, such as irrigation scheduling,
+ fertilisation, and pest control, ultimately leading to higher crop yields and more sustainable
+ farming practices.
+ The success of this project hinges on the collaboration of several key roles in data science
+ and technology. Data scientists will be responsible for collecting and preprocessing the data
+ from various IoT sensors and external sources, ensuring its quality and consistency. They
+ will also develop machine learning models tailored to predict crop yields based on the
+ analyzed data. Data engineers will design and maintain data pipelines capable of handling
+ the large volumes of sensor data, integrating information from multiple sources to create a
+ cohesive dataset. Additionally, they will ensure that the data processing infrastructure is
+ scalable and efficient. Machine learning engineers will focus on building and training
+ advanced AI models specific to yield prediction, optimizing algorithms for accuracy and
+ performance, and implementing real-time predictive analytics. IoT specialists will deploy and
+ maintain the sensor networks in the fields, ensuring continuous data collection and
+ addressing any hardware or connectivity issues that arise.
+ The business model for this project is rooted in the concept of precision agriculture, which
+ aims to improve farm management by providing detailed insights into crop health, soil
+ conditions, and environmental factors—insights that traditional methods cannot achieve
+ (Wolfert et al., 2017). The project will operate on a subscription-based model, where farmers
+ and agricultural consultants subscribe to access the AI-driven insights. Different subscription
+ tiers can be offered based on the scale of the farming operation and the specific features
+ required, such as basic monitoring versus advanced predictive analytics. This approach
+ aligns with the evolving landscape of smart, connected products, which are transforming
+ competition and enabling new business models across various industries, including
+ agriculture (Porter &amp; Heppelmann, 2014).
+ The benefits of this project are manifold. Improved yield prediction allows farmers to plan
+ their planting, irrigation, and harvesting activities more effectively, leading to increased
+ productivity and profitability. Moreover, the use of predictive analytics can help anticipate
+ adverse conditions like drought or pest infestations, enabling farmers to take proactive
+ measures and reduce risks. This is particularly important in the context of climate change,
+ where variability in weather patterns poses a significant threat to agricultural productivity. By
+ optimizing resource usage, the project also promotes sustainability, aligning with global
+ goals to reduce the environmental impact of agriculture while maintaining high productivity
+ (Klerkx et al., 2019).
+ Despite its potential, the project faces several challenges. Integrating data from disparate
+ sources such as IoT sensors, weather data, and satellite imagery is complex, requiring a
+ unified data platform that can handle diverse data types effectively. Ensuring the accuracy of
+ AI models across different environments and crop types is also critical, as variability in local
+ conditions necessitates adaptable and regularly updated models. The initial setup and
+ maintenance costs of the IoT network and data infrastructure may be high, but the long-term
+ benefits in terms of cost savings and productivity gains can outweigh these expenses.
+ Additionally, educating farmers on how to use the technology effectively and gaining their
+ trust in AI predictions is essential for widespread adoption.
+  Scholarly References:
+ Klerkx, L., Jakku, E., &amp; Labarthe, P. (2019). A review of social science on digital agriculture,
+ smart farming and agriculture 4.0: New contributions and a future research agenda.
+ NJAS- Wageningen Journal of Life Sciences, 90-91, 100315.
+ Porter, M. E., &amp; Heppelmann, J. E. (2014). How smart, connected products are transforming
+ competition. Harvard Business Review, 92(11), 64-88.
+ Wolfert, S., Ge, L., Verdouw, C., &amp; Bogaardt, M. J. (2017). Big data in smart farming– A
+ review. Agricultural Systems, 153, 69-80.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Project Title
+Leveraging Sentiment Analysis of Amazon Product Reviews: Extracting Consumer Insights and Trends
+Project Description
+Business Project Description:
+Understanding consumer sentiment is crucial for maintaining a competitive advantage and ensuring consumer satisfaction in the rapidly evolving digital retail landscape. This project aims to leverage sentiment analysis to evaluate customer reviews on Amazon. By analyzing the emotional tone, frequency of keywords, and overall sentiment polarity in product reviews, we seek to uncover deep insights into consumer satisfaction and preferences. These insights can guide product improvements, optimize marketing strategies, and enhance customer experience.
+Business Objectives:
+Develop a Sentiment Analysis Model: Create a machine-learning model to classify customer reviews.
+Identify Consumer Insights: Extract and analyze sentiment data to identify trends and insights related to consumer satisfaction and areas of concern.
+Enhance Product Offerings and Services: Use insight from sentiment analysis to guide product development and improvement efforts.
+Optimize Marketing Strategies: Tailor marketing campaigns and engagement tactics based on the insights derived from consumer sentiment.
+Data Science Roles and Responsibilities:
+		Data Scientist
+Design and Implementation: Develop and implement machine-learning models for sentiment classification using libraries such as tm, textdata, tidytext, or similar.
+Model Training and Validation: Train models on labeled datasets and perform validation to ensure accuracy.
+Feature Engineering: Create features like n-grams, TF-IDF vectors, and sentiment scores to enhance model performance.
+		Data Engineer
+Data Collection: Extract review data from Amazon using web scraping tools
+Data Preprocessing: Clean and preprocess the data to handle missing values, punctuation, and stop words.
+Data Storage: Manage efficient storage and retrieval of large volumes of review data using a cloud storage solution. 
+		System Architect
+Infrastructure Design: Design a scalable infrastructure capable of handling large-scale data processing and real-time analytics.
+Integration: Using cloud technologies like Google Cloud, ensure seamless integration of sentiment analysis tools with existing business systems.
+Scalability: Implement distributed computing frameworks like Hadoop or Spark to support large-scale sentiment analysis.
+		Business Analyst
+Insight Interpretation: Analyze sentiment analysis results to derive actionable business insights.
+Reporting: Create reports and visualization to communicate findings to stakeholders using tools like Tableau.
+Strategy Formulation: Use insight to develop product development, marketing, and customer service business strategies.
+Business Model
+Application Areas:
+E-Commerce Sector: This mainly benefits businesses operating on platforms like Amazon. By understanding customer sentiment, companies can frame better strategies, improve product features, and offer superior services, leading to increased customer loyalty and sales.
+Expected Benefits:
+Improved Customer Satisfaction: Address concerns raised in negative reviews and amplify aspects appreciated in positive reviews.
+Product Development: Gain insights that inform product design and feature enhancements, leading to better market fit.
+Marketing Optimization: Tailor marketing message to align with customer sentiments, increasing engagement and conversion rates. 
+Competitive Advantage: Use sentiment insights to stay ahead of competitors by efficiently meeting customer needs.
+Benefit Targets:
+E-commerce Businesses: Enhance products and customer service based on customer feedback.
+Product Managers: Understand consumer needs better, guiding product development.
+Marketers: Optimize strategies to improve engagement and conversion rates based on sentiment analysis.
+Consumers: Benefit from improved products and services tailored to their preferences.
+Challenges:
+Data Privacy and Security: Ensure that the collection and analysis of review data comply with privacy regulations.
+Data Quality: Manage noisy and unstructured data to ensure accurate sentiment analysis.
+Model Accuracy: Develop models capable of accurately classifying sentiment and understanding nuanced customer feedback.
+Integration: Seamlessly integrate sentiment analysis insights into existing business workflows and decision-making processes.
+</t>
+  </si>
+  <si>
+    <t>Data science project in gaming
+ Black Myth: Wukong
+ Project Objective:
+ The focus of this project is to analyze why the Black Myth: Wukong had the opportunity to
+ receive wide acclaim at the very beginning of its release.
+ Black Myth: Wukong is a single-action role-playing game released as the first AAA game in China.
+ It based on the classic Chinese novel Journey to the West and features the legendary Monkey
+ King, Sun Wukong, as its main character, along with the monsters in eighty-one fighting
+ challenges. The game officially launched on August 20, 2024, and has since achieved a major
+ success, particularly in China and gradually spread around the world. It reached 2.2
+ million players at the same time on Steam just one day after its release, showing its popularity.
+ The goal of the project is to analyze why the game can achieve great success in a short period of
+ time, then find the pain points in the Chinese market and even the international
+ market. Encourage game companies to make quality games to meet the needs of consumers
+ while achieving revenue.
+ Data Science Roles Involved:
+ Data Scientist: Responsible for designing and implementing machine learning models that
+ analyze player behavior, predict the probability of churn, and recommend game improvements
+ based on the processed data. Focus on the review published on social media, dig for the separate
+ directions as much as possible.
+ Data Engineer: Focuses on building and maintaining data pipelines, ensuring that data and
+ reports from millions of players is efficiently processed, cleaned, and stored for analysis.
+ System Architect: Designs the overall architecture that supports the upgradable and efficient
+ processing of data, including infrastructure planning.
+ Business Model
+ Application Area: Gaming Industry: How to increase the success of a new game
+ Benefits/Values:
+ Increased Player Engagement and Satisfaction: By offering a more personalized and responsive
+ gaming experience, Black Myth: Wukong can retain a larger player individuality, leading to a more
+ vibrant and active gaming environment.
+ Higher Revenue and Monetization Opportunities: Analyzing early success data can lead
+ consumers to pay for subsequent game content and improve the profitability of the game while
+ maintaining customer retention
+ Improved Game Quality and Longevity: Continuous data-driven improvements based on player
+ feedback and behavior can ensure the game remains relevant and enjoyable over time, extending
+ its lifetime.
+ Enhanced Brand Loyalty: Successful implementation of data science techniques can lead to
+ high-quality gaming experiences and provide data guidance for issuing sequels or derivative
+ works, resulting in loyal customers who are more likely to support future titles from the same
+ developer.
+ Beneficiaries:
+ GameDevelopers: By analyzing the success of Black Myth: Wukong, game developers can gain
+ insights into innovations in game design, narrative, and technical implementation. Understanding
+ these factors can help introduce similar innovations in future projects, improving game quality
+ and market competitiveness.
+ Marketing companies: Studying the successful marketing strategy of Black Myth: Wukong,
+ especially analyzing its pre-sales results and launch day performance, can provide valuable
+ marketing experience for other game companies. This includes how to use social media and
+ trailers to generate interest and how to effectively promote new games on a global scale.
+ Cultural Promotion Departments: Analyzing how Black Myth: Wukong successfully integrates
+ traditional Chinese cultural elements into modern games can help other departments promote
+ local cultural products on a global scale. This strategy can not only appeal to the domestic market
+ but also have a broad international impact.
+ Challenges:
+ Difficulty in collecting data: The game is so new that it may be difficult to find data on the game
+ publicly disclosed by the publisher. And the data in the very early stage may not be
+ representative, and it may take time to get the data.
+ Data Security and Privacy: With the vast amount of data being processed, maintaining data
+ security and ensuring compliance with privacy regulations are critical challenges that need to be
+ addressed.
+ Model weight allocation: the part involved in the cultural industry may be difficult to find
+ auxiliary data to measure and may involve the emergence of cultural infringement and other
+ legal issues, which need to be controlled reasonably.
+ Reference:
+ 1.
+ Sharma, Kanhaiya, Firdous Hussain Mohammad, and Deepak Parashar. "Apache Spark in Riot
+ Games: A Case Study on Data Processing and Analytics." International Journal of Advanced
+ Computer Science and Applications 14.7 (2023)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+Data Science in Outbreaks:
+Predicting the Spread of Infectious Disease
+1 Project Description
+1.1 Overview
+	Nowadays, emerging infectious diseases pose significant global public health challenges. Understanding the patterns of disease spread post-outbreak can help in devising effective interventions and mitigating future risks (Simonsen, 2016).
+	The project developed a system based on methods from data science, such as big data, deep learning, and machine learning, to analyze the spread patterns of infectious diseases after outbreaks, gain in-depth understanding of transmission dynamics, identify hotspots, and guide public health responses.
+1.2 Data Sources
+	The data used in this project come from official health records, mobility data, environmental databases, and infectious disease data of major public health importance provided by public health agencies.
+1.3 Roles and Responsibilities
+Data Engineer: Responsible for data collection and preprocessing.
+Data Analyst: Performs exploratory data analysis and visualization.
+Machine Learning Engineer: Develops predictive models.
+Data Scientist: Designs the overall analytical framework.
+Epidemiologist: Provides domain-specific knowledge and validates models.
+1.4 Project Process
+Data Collection:
+	Data engineers set up data pipelines to gather relevant data from health departments, mobility and travel databases, social media, and environmental sensors (Brownstein, 2008).
+Data Analysis:
+	Data analysts perform visualization and statistical analysis to understand the spatial and temporal trends of the outbreak.
+Model Development:
+	Machine learning engineers create predictive models using Deep Learning and Big Data techniques, such as the deep neural network (DNN), long-short term memory (LSTM) learning models (Chae, 2018), Compartmental models (Bershteyn, 2022) and spatiotemporal models (Angulo, 2013), to simulate disease spread.
+Validation and Insights:
+	Epidemiologists validate the model outputs, ensuring they align with known clinical and epidemiological knowledge. The results are used to generate actionable insights for public health responses.
+Deployment:
+	Develop dashboards and automated reporting tools to provide real-time updates and insights to public health officials, enabling informed decision-making.
+Feedback Loop:
+	Continuously update the models based on new data and outcomes of interventions to improve their accuracy and reliability.
+1.5 Expected Outcomes
+	A detailed report on the research process and results of this project.
+	Data science-based algorithmic systems that can identify real-time disease hotspots and predict disease spread.
+	Data-driven intervention recommendations for public health.
+2 Business Model
+2.1 Application Areas and Beneficiaries
+Government and International Organizations:
+	Internation health organizations (e.g., WHO, CDC) and local governments monitor health issues within a population and use insights from disease spread analysis to make informed decisions on public health measures, resource allocation, and emergency response planning.
+Medical institutions:
+	Hospitals, clinics, and other healthcare facilities can benefit from predictive insights to prepare better for patient influx, manage hospital resources, and minimize the spread within healthcare settings.
+Academic and Research Institutions:
+	Universities and research centers can use the data and models to conduct further studies on infectious diseases, advancing scientific understanding and contributing to global health knowledge.
+Pharmaceutical Companies:
+	Companies involved in drug development and vaccine production can use insights from disease spread analysis to focus their research efforts and expedite the development of effective treatments and vaccines.
+Public:
+	The public can obtain real-time information from epidemic trend forecasts, take personal precautions in advance, and reduce panic.
+2.2 Values and Challenges
+2.2.1 Values
+Integration of Diverse Data Sources:
+	Combining various data sources such as health records, mobility data, social media, and environmental databases represents a novel approach to understanding disease spread. This holistic view allows for more comprehensive analysis and better-informed public health decisions.
+Advanced Modeling Techniques:
+	Utilizing state-of-the-art modeling techniques beyond traditional methods. The models capture the complexities of disease spread more accurately, considering factors like human behavior, interventions, and environmental influences.
+Feedback Loop for Continuous Improvement:
+	Implementing a feedback loop where models are continuously updated based on new data and intervention outcomes is an innovative way to enhance model accuracy and reliability over time. This adaptive approach allows for the system to evolve and improve dynamically.
+2.2.2 Challenges
+Modeling Complexity:
+	Accurately capturing the complexities of disease spread in models, considering factors like human behavior, interventions, and environmental influences. This requires advanced modeling techniques and continuous validation and calibration.
+Interdisciplinary Collaboration:
+	Seamless collaboration between data scientists, epidemiologists, and public health officials is crucial but can be challenging. Effective communication and coordination are necessary to ensure that all perspectives are considered and that the models are both technically and scientifically sound.
+Ethical Considerations:
+	Ensuring ethical handling of sensitive data and maintaining privacy while conducting comprehensive research. Compliance with data protection regulations and maintaining public trust is a significant concern.
+References
+Angulo, J., Yu, H. L., Langousis, A., Kolovos, A., Wang, J., Madrid, A. E., &amp; Christakos, G. (2013). Spatiotemporal infectious disease modeling: a BME-SIR approach. PloS one, 8(9), e72168.
+Bershteyn, A., Kim, H. Y., &amp; Braithwaite, R. S. (2022). Real-time infectious disease modeling to inform emergency public health decision making. Annual Review of Public Health, 43(1), 397-418.
+Brownstein, J. S., Freifeld, C. C., Reis, B. Y., &amp; Mandl, K. D. (2008). Surveillance Sans Frontieres: Internet-based emerging infectious disease intelligence and the HealthMap project. PLoS medicine, 5(7), e151.
+Chae, S., Kwon, S., &amp; Lee, D. (2018). Predicting infectious disease using deep learning and big data. International journal of environmental research and public health, 15(8), 1596.
+Simonsen, L., Gog, J. R., Olson, D., &amp; Viboud, C. (2016). Infectious disease surveillance in the big data era: towards faster and locally relevant systems. The Journal of infectious diseases, 214(suppl_4), S380-S385.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+Business and Data Case Study
+FIT5145  Proposal of  
+Optimising NBA Defensive Strategies
+Through Machine Learning and Data Science
+─
+Introduction
+“Offense sells tickets, but defence wins championships.” 
+–Bear Bryant
+The National Basketball Association, one of the most significant sports leagues globally, has a broad market. As stated above, defence is the most critical factor in basketball. Since the NBA's inception in 1946, statistics have been used to monitor player and team performance. In the early years, these stats were relatively simple, focusing on basic metrics like points scored, shots made and attempted, free throws made and attempted, and fouls.[1]Recently, more detailed stats have been recorded, creating a significant opportunity for machine learning to use them to analyse the player's behaviour and find the gap in their offensive game. This proposal explores how the NBA can use advanced data tools to improve players' defensive strategies. 
+Project Description
+Currently, specialised NBA teams analyse player movements and behavioural patterns to identify weaknesses and tailor strategies. However, this manual process is time-consuming and often focuses only on star players, becoming incredibly challenging during the playoffs due to analyst shortages.
+To improve efficiency, we propose a machine learning solution that uses open-source tools and integrates APIs from data sources like NBA stats. This will automate the analysis, providing timely and accurate evaluations of all players' defensive capabilities. The models will predict shooting tendencies and offensive moves, generating comprehensive reports that enhance defensive strategies.
+The responsibilities for this project will be divided among various data science roles. Data scientists will develop and train the machine learning models, while data analysts will integrate the model predictions into comprehensive reports. Machine learning engineers will maintain and update the models as new data becomes available, ensuring their accuracy and reliability. Finally, sports analysts will interpret the results and collaborate with coaches to apply these insights effectively during games.
+Business Model
+Business area: Sports company, specialised in basketball.
+Purpose of the Project: Reinforce the accountability and efficiency of player and gameplay analysis specifically for boosting defence gameplay.
+Benefit: 
+Predict the gameplay for the opponent and provide defensive feedback
+Dramatically improve Time efficiency on game analysis during the tight schedule in playoffs, making the analysis right on time.
+Lower the cost of hiring more player analysis.
+Enhanced Defensive Performance on your team.
+Make the team more flexible and dynamic in the defensive gameplay.
+Beneficiaries:
+Coach: The coach can use the analysed report to create a better game plan and anticipate key players' moves, allowing for quick adjustments during the game.
+Player/Video Analysis: This system provides more transparent and user-friendly analysis, helping analysts optimize defensive strategies and analyse opponents' gameplay.
+Player: Players can focus on critical weaknesses in their opponents, better preparing them to anticipate habits during the match.
+Potential Risks and Challenges: 
+Complexity of Training the Analysis Model: Training the model is challenging due to the unpredictability of each match, requiring close collaboration between ML engineers and game analysts.
+Limitations of Strategy and Game Planning: If the defence is too focused on predicted patterns, the actual gameplay might diverge from these expectations, leading to vulnerabilities.
+Data Privacy and Security: Ensuring the responsible management of sensitive player data to maintain privacy and uphold trust.
+Cost and Resources: Tackling the significant initial investment required for advanced technology and skilled personnel.
+Example of how the model works using 
+Heat map: These diagrams from Stephen Curry and Ben Simmons reveal distinct patterns—Curry consistently attempts more three-point shots and some lay-ups, while Simmons rarely takes three-point shots. This is just one aspect of what a heat map can show. 
+Behaviour and Analysis demo based on NBA stats: Similar data will be fed into the model to see how the pattern of their game blends with the video analysis. A comprehensive report of a player's offensive game will be demonstrated, and no gap will be covered.
+Example STATS: 
+Stephen Curry 
+Ben Simmons
+Height
+191cm
+208cm
+Weight
+84 kg
+109 kg
+Lhd or rhd 
+Right-handed
+Left-handed
+Cut in or faded out 
+Faded out 
+Cut in
+Avg . Point per Game
+26.4 Point 
+6.1Point
+Powered by Fanspo.
+`Now, guarding Stephen Curry demands aggressive perimeter defence and vigilance in his off-ball movements. For Ben Simmons, defenders should prioritise clogging driving lanes, maintaining physicality in the paint, and disrupting his playmaking. Tailoring defensive strategies to their distinct strengths and weaknesses is essential for minimising their impact on the game.
+Sustainability:
+Cooperate with The league to give direct process data
+Work with the trainer and NBA team to maintain long-term cooperation
+Get supposer from a university or sports company to operate and maintain the big model
+Calibrate with the university and pro player to train the model. 
+Reference
+Jr. NBA. Basic/traditional stats vs. advanced stats. https://jr.nba.com/basictraditional-stats-vs-advanced-stats
+Huyghe, T., Alcaraz, P. E., Calleja-González, J., &amp; Bird, S. P. (2021). The underpinning factors of NBA game-play performance: a systematic review (2001–2020). The Physician and Sportsmedicine, 50(2), 94–122. https://doi.org/10.1080/00913847.2021.1896957
+Fanspo. (Accessed 23/08/2024). Stephen Curry vs. Ben Simmons: Compare players. Fanspo. https://fanspo.com/nba/compare-players/stephen-curry-201939/ben-simmons-1627732
+NBA.com.Accessed 23/08/2024 . Player stats. NBA. https://www.nba.com/stats/player
+StatMuse. (Data retrieved 23/08/2024 ). Ben Simmons shot chart. StatMuse. https://www.statmuse.com/nba/ask/ben-simmons-shot-chart
+StatMuse. (Data retrieved 23/08/2024). Career heatmap of shots by Stephen Curry. StatMuse. https://www.statmuse.com/nba/ask/career-heatmap-of-shots-by-stephen-curry
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Predicting wheat yield based on soil data
+Project Description
+Objective
+This project aims to use modern machine learning and data techniques to build a tool capable of predicting the amount of sellable wheat (in tonnes) produced per unit of area planted. The data used for these predictions will include measurements of compounds in the soil such as zinc and potassium [1], which are essential for plant growth. It will also include soil state indicators such as pH level and moisture content which are similarly important for optimal growing conditions [2]. By predicting these outcomes, farmers will be able to make a more informed decision about the area of crop they should plant and make better estimates of their expected yields to plan their finances and future crop seasons.
+Data Science Roles Involved
+Data Engineer: the role of the engineer is to source and compile the data into one dataset on which a model can be trained upon. Data may need to be taken from different sources such as regional soil health data joined with the regional wheat production for regions with a high portion of their crops reported as wheat. They will also be responsible for all cleaning and pre-processing of data.
+Agricultural Specialist: they will require expertise in soil science and crop management. They will be responsible for providing insights on the data as an expert in the field. They will work with the data engineer to ensure data quality and relevance and will help validate the predictions made. 
+Data Scientist: responsible for training the model to predict based on the curated data. This will involve choosing and comparing potential models and optimising them to achieve best performance for the task provided. Additionally, they will ensure the interpretability of the model produced to maximise its usefulness.
+Business Model
+Application Area
+This project focuses on the field of agriculture, with a particular focus on improving information available to farmers and in doing so improve decision making around planting crops, particularly wheat. It aims to do this using machine learning tools to gather greater insight on data with extremely high dimensionality. While focused on wheat similar techniques could be used for other crops in the future.
+Benefits
+More informed planting: by having an idea of their expected returns and outcomes for a crop, farmers will be better able to decide what crop to plant and how much of it. 
+Better financial planning: by having a better estimation of their total produce, farmers may be able to better plan their finances for the future as they will have a closer estimation of their return on investment.
+Insight into optimal growing conditions: a machine learning model may be able to shed greater light on the complex interactions between minerals and other soil properties that lead to favourable or unfavourable growing conditions, potentially beyond what current understanding.
+Beneficiaries
+Farmers: this tool is primarily to increase the information available to farmers. It may allow them to better plan their planting and finances.
+Consumers: end market buyers may see reductions in cost if the conditions for planting the crop are optimisable because of this data.
+Challenges
+The primary challenge here is finding data. Although some data exists about soil health and data does exist about crop sale prices and gross produce, they exist separately. There is no readily available data that is usable immediately and instead data from multiple sources such as research institutions and must be merged to build a suitable dataset with which to train this model.
+Additionally, the model must have a high accuracy to be worth using. Many farmers have extensive experience and will be able to out predict a weak model either by looking at numbers themselves or simply using intuition. For this reason, the model requires a high accuracy to be worth the farmer’s time.
+The model must also be interpretable. There may be no correlation that is clear from the models’ decisions as to why it predicts one way or another. If this is the case it may be useful for individual decisions but will be unable to help build greater understanding of the conditions that create the most crop.
+Acknowledgements
+I acknowledge that the units provided flora gpt was used to help write this report. It was used to generate examples of formatting, find data sources and provide feedback on the report itself.
+References
+[1] Rawal, N., Pande, K. R., Shrestha, R., &amp; Vista, S. P. (2022). Nutrient use efficiency (NUE) of wheat (Triticum aestivum L.) as affected by NPK fertilization. PLOS ONE, 17(1), e0262771. https://doi.org/10.1371/journal.pone.0262771
+[2] Killian, J., Ketterings, Q., Czymmek, K., Stanyard, M., &amp; Cox, B. (2011). Fertility Management of Winter Wheat Agronomy Fact Sheet Series. http://nmsp.cals.cornell.edu/publications/factsheets/factsheet65.pdf
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How schools can earlier predict results of students based on their emotional state
+Data Science Project
+Education
+Project Description 
+Being able to accurately predict a student’s outcome before they have even taken a test, would be a revolutionary feature for educators. This would allow them to intervene earlier in the students’ academic progression. The belief is that before tests or assessments that students may perform poorly in, they would have already been exhibiting a behavioural shift. Such changes may be gradual change meaning educators would miss the signs. This project aims to give schools the tools to earlier detect these behavioural changes amongst the students to be able to give support earlier.
+Required roles for this project is a data scientist, a data analyst, a data engineer, a system architect, and a software engineer. The data scientist would be required for the collecting and storing of the video data, the processing of value information such as movement, and facial expressions, from the videos. They would also be required to create a model based on these features to predict academic performance. The data analyst would be responsible for analysis the data of the product to see if teachers are finding the solution valuable in improving their students’ performance. The data engineer would be responsible for organise and maintaining the large volume of data required. The software engineer would be responsible for building out the software product for schools.
+Business Model
+This project falls within the EdTech sector and targets K-12 schools, higher education institutions, and online learning platforms. The primary objective is to provide an early intervention system that uses students' emotional data to predict academic performance, thus allowing educators to offer timely support to students who may be at risk.
+Benefits/Values:
+1. For Students:
+- Early Support: Students receive timely interventions, which can help improve their academic performance and emotional well-being.
+- Personalized Learning: Tailored educational support based on individual emotional and academic data.
+2. For Teachers:
+- Proactive Intervention: Enables teachers to identify at-risk students early and provide targeted support.
+- Data-Driven Insights: Empowers educators with actionable insights to make informed decisions about instructional strategies.
+3. For Schools/Institutions:
+- Improved Outcomes: Better academic performance and emotional well-being metrics can enhance the school's reputation.
+- Resource Optimization: More efficient allocation of resources to areas where they’re most needed.
+Subscription Model:
+1. Tiered Subscription Plans:
+- Basic Plan:
+- Features: Basic emotional state detection and performance prediction, limited data analytics, basic reporting.
+- Target Users: Small schools, primary education providers.
+- Standard Plan:
+- Features: Advanced emotional state detection, enhanced predictive models, comprehensive analytics, and reporting tools.
+- Target Users: Medium to large schools, secondary education providers.
+- Premium Plan:
+- Features: Fully customizable features, integration with existing school management systems, real-time data processing, dedicated support, and training.
+- Target Users: Large schools, school districts, higher education institutions.
+2. Revenue Model:
+- Monthly/Annual Subscriptions: Schools can subscribe on a monthly or annual basis, with discounted rates for longer commitments.
+- Volume Discounts: Discounted pricing for schools that enroll a larger number of students or multi-school subscriptions within a district.
+3. Customer Support and Training:
+- Onboarding Assistance: Initial setup and training to get schools started with the platform.
+- Ongoing Support: Continuous technical support, troubleshooting, and updates.
+- Professional Development: Workshops and training sessions for educators on effectively using data to support students.
+Challenges:
+1. Data Privacy and Security:
+- Encryption: All student data must be encrypted to ensure privacy and security.
+- Compliance: Adhering to regulations such as FERPA (Family Educational Rights and Privacy Act), GDPR (General Data Protection Regulation), and COPPA (Children's Online Privacy Protection Act).
+2. Accuracy and Reliability:
+- Emotion Detection: Ensuring the accuracy of emotional detection and the reliability of predictions is crucial.
+- Bias Mitigation: Developing unbiased models to ensure fair and accurate predictions across diverse student populations. A baseline needs to be established per person.
+3. Integration with Existing Systems:
+- Seamless Integration: Ensuring the platform can integrate seamlessly with existing school management and learning management systems.
+- Data Interoperability: Facilitating the interoperability of data between different systems and maintaining data integrity.
+4. User Adoption and Training:
+- Change Management: Helping schools transition to using data-driven approaches for student support.
+- Training Programs: Comprehensive training programs for teachers and staff to maximize the platform’s benefits.
+Conclusion:
+Offering a subscription-based platform for predicting student outcomes based on emotional states can provide significant value to all stakeholders involved. By addressing potential challenges and focusing on the key benefits, this platform can become an essential tool for modern educational institutions to support students more effectively.
+References
+AI was used in the generation of this response. It is directly responsible for the output of the business model.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FIT5145
+vGameReviews: Bridging Gaming Insights with Research through an R Package
+Project Description: vGameReviews R Package Development
+The vGameReviews project focuses on developing an open-source R package designed to facilitate the retrieval and analysis of video game reviews from the Steam platform. The primary objective of this project is to enhance the accessibility of valuable datasets related to both casual and serious games, enabling researchers from various disciplines—such as education, health, urban planning, and technological development—to leverage user-generated content for their studies.
+Objectives:
+1. To provide a user-friendly interface for accessing and downloading video game reviews without requiring advanced coding skills.
+2. To improve the reproducibility of data acquisition methods by documenting exact searches within the R environment.
+3. To enable researchers to analyze user feedback to inform the development of serious games and enhance understanding of user experiences.
+Data Science Roles Involved:
+1. Data Scientist:
+  - Responsibilities:
+    - Analyze the collected video game reviews to extract insights regarding user experiences and sentiments.
+    - Utilize natural language processing (NLP) techniques to classify and assess reviews, identifying trends and patterns in user feedback.
+    - Collaborate with researchers from various fields to understand their data needs and tailor analyses accordingly.
+2. Data Engineer:
+  - Responsibilities:
+    - Develop and maintain the backend infrastructure for the vGameReviews R package, ensuring efficient data retrieval from the Steam API.
+    - Implement data pipelines that facilitate the collection, storage, and processing of large volumes of review data.
+    - Ensure data quality and integrity by establishing validation processes and monitoring data flows.
+3. System Architect:
+  - Responsibilities:
+    - Design the overall architecture of the vGameReviews package and its associated Shiny application, ensuring scalability and performance.
+    - Oversee the integration of various components, including the API calls, data storage solutions, and user interface elements.
+    - Collaborate with data scientists and engineers to ensure that the system meets the functional requirements of end-users.
+By combining the expertise of data scientists, data engineers, and system architects, the vGameReviews project aims to create a robust tool that democratizes access to video game review data, ultimately fostering innovative research and development in the gaming industry and beyond.
+Benefits and Value Creation:
+1. Enhanced Research Capabilities:
+  - The vGameReviews R package allows researchers to easily access and analyze a wealth of video game reviews, facilitating studies that can lead to improved understanding of user experiences and preferences. This can enhance the development of both casual and serious games.
+2. Informed Game Development:
+  - Game developers can leverage insights from user reviews to refine their products, ensuring that they meet the needs and expectations of players. This can lead to higher user satisfaction and increased sales.
+3. Cross-Disciplinary Applications:
+  - The project enables the application of gaming insights in various fields, such as education (for developing educational games), health (for serious games aimed at wellness), and urban planning (using game mechanics for public engagement). This cross-disciplinary approach can foster innovation and collaboration among different sectors.
+4. Accessibility for Non-Technical Users:
+  - By providing a user-friendly interface through the Shiny application, the project democratizes access to data analysis tools, allowing non-data scientists to engage with video game data. This can empower educators, health professionals, and urban planners to utilize gaming insights without needing extensive technical skills.
+Challenges:
+1. Data Accessibility and API Limitations:
+  - While the Steam API provides access to game reviews, there may be limitations in the volume and type of data available. Ensuring comprehensive data collection while adhering to API usage policies can be challenging.
+2. Data Quality and Noise:
+  - User-generated content can be noisy and subjective. Filtering out irrelevant or low-quality reviews to extract meaningful insights requires robust data processing and analysis techniques.
+3. Technical Maintenance:
+  - As the gaming industry evolves, the vGameReviews package will need ongoing updates and maintenance to ensure compatibility with changes in the Steam API and to incorporate new features based on user feedback.
+4. User Adoption:
+  - Encouraging researchers and practitioners from various fields to adopt the vGameReviews package may require targeted outreach and education about its capabilities and benefits.
+In summary, the vGameReviews project has the potential to create significant value across multiple sectors by providing accessible tools for analyzing video game reviews. However, it must navigate challenges related to data access, quality, and user engagement to realize its full potential.
+References:
+Fox, N., Van Berkel, D., Serrano Verge, R., &amp; Lindquist, M. (2023). vGameReviews: An R package for harnessing video game reviews for scientific research. SoftwareX, 23, 101423. https://doi.org/10.1016/j.softx.2023.101423
+link between pcakage deve
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+"Predictive Analytics for Esports Performance: Enhancing Team Strategies and Player 
+Training through Data Science"  
+Project Description  
+The esports industry has become a global phenomenon, with professional teams and 
+players competing for substantial rewards. However, optimizing team performance in such 
+a competitive environment remains challenging due to the complexity of gameplay 
+dynamics and the variability in player performance. Traditional approaches to strategy and 
+training often rely on intuition and experience, which can be inconsistent and subjective.  
+This project proposes a data -driven approach to enhancing team strategies and player 
+training by developing predictive models that analyze historical match data and player 
+statistics. The objective is to create a system that forecasts match outcomes, evalu ates 
+player performance, and suggests optimal team compositions based on various in -game 
+metrics.  
+The predictive models will be built using machine learning algorithms applied to a dataset 
+comprising match outcomes, player stats, and in -game events. Key features will include 
+metrics like kill/death ratios, reaction times, and team compositions, which a re engineered 
+to capture critical performance indicators. These models will provide actionable insights for 
+coaches and analysts, enabling them to refine strategies and tailor training programs to 
+individual player needs.  
+To implement this project, the following key roles will be involved:  
+• Data Scientist : Develops and validates the predictive models.  
+• Data Engineer : Manages data collection, preprocessing, and integration of real -time 
+data feeds.  
+• Esports Analyst : Interprets the model outputs and translates them into practical 
+strategies for teams and players.  
+• Coach/Trainer : Utilizes the insights to optimize training regimens and in -game 
+strategies.  
+This project is designed to significantly enhance the competitive edge of esports teams by 
+providing reliable, data -driven tools for decision -making and performance optimization.  
+Business Model  
+The business model for this project revolves around leveraging predictive analytics to 
+improve the performance and strategic capabilities of esports teams, translating into better 
+competitive results and increased profitability.  
+Value Creation : 
+• For Teams : The predictive models offer a deeper understanding of gameplay 
+dynamics, enabling more informed strategic decisions that lead to improved match 
+outcomes and tournament success.  
+• For Players : By identifying individual strengths and weaknesses, the models help 
+tailor training programs to enhance specific skills, leading to better overall 
+performance.  
+• For Sponsors and Investors : Teams that utilize advanced analytics to gain a 
+competitive edge are more likely to attract lucrative sponsorship deals and 
+investments, given their higher chances of success.  
+Revenue Streams : 
+• Subscription Services : Offer teams and players a subscription -based service that 
+provides continuous access to predictive analytics and performance insights.  
+• Consulting Services : Provide specialized consulting services to esports 
+organizations, assisting them in integrating predictive analytics into their training and 
+strategy development processes.  
+• Sponsorships and Partnerships : Teams that demonstrate measurable 
+improvements through data -driven strategies are more likely to secure high -value 
+sponsorships and partnerships.  
+Challenges and Innovation : 
+• Data Complexity : Esports data is complex and multifaceted, requiring sophisticated 
+modeling techniques to accurately capture all relevant factors. Developing models 
+that are both accurate and generalizable across different games and scenarios is a 
+significant challenge.  
+• Real-Time Application : Integrating real -time data into predictive models adds a layer 
+of complexity but enhances the practical value of the insights provided. This can 
+allow for in -game adjustments based on real -time predictions, providing a 
+competitive advantage.    
+• Ethical Considerations : Ensuring that predictive analytics does not lead to 
+exploitation or unfair advantages is crucial for maintaining the integrity of the sport. 
+The project will involve rigorous testing and continuous monitoring to refine the 
+models and ensure fair play.  
+This project represents a novel application of predictive analytics in the esports industry, 
+offering a data -driven solution to optimize team strategies and player training. By providing 
+actionable insights based on comprehensive data analysis, this approa ch can significantly 
+enhance the performance of esports teams, making them more competitive on the global 
+stage.  
+References  
+• Gandomi, A., &amp; Haider, M. (2015). Beyond the hype: Big data concepts, methods, 
+and analytics. International Journal of Information Management , 35(2), 137 -144. 
+https://doi.org/10.1016/j.ijinfomgt.2014.10.007  
+• Sifa, R., Drachen, A., &amp; Bauckhage, C. (2015). Large -scale cross -game player 
+behavior analysis on Steam. Proceedings of the Eleventh AAAI Conference on 
+Artificial Intelligence and Interactive Digital Entertainment (AIIDE -15), 98-104. 
+Retrieved from https://cdn.aaai.org/ojs/12804/12804 -52-16321-1-2-20201228.pdf  
+• Srivastava, S. (2024, July 9). AI in sports – How is artificial intelligence redefining the 
+sports industry? Real -world examples . Appinventiv . https://appinventiv.com/blog/ai -
+in-sports/  
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project Title: Enhanced Coaching Decisions: Data-Driven Strategy Design and Real-Time Tactical Adjustments in Football
+1 Project Description
+1.1 Introduction
+As the world's most popular sport, football always attracts great attention. With the integration of technology, modern football is developing to a higher level, and the competition has become fierce. Today, we will see that data science plays a very important role in the field of football. The coaches of each team, although they cannot play on the field like players, are the key factor in the success of a team. With the strong support of data science, today's coaches can make more accurate decisions than ever before and see some insights that may not be discovered by the naked eye to better help the team succeed. This project aims to use data science to assist football coaches in designing pre-match strategies and in-match real-time adjustments. Our work includes collecting and analyzing different data such as historical data, player statistics, and real-time match data and providing coaches with valuable insights and the optimal decision of the match.
+1.2 Project Objectives
+Our objective is to:
+  Design Data-Driven Pre-Match Strategies: Develop a model that can recommend reasonable tactics and formations is generated based on historical data, recent performance data of the team's players, and technical characteristics data of the opponents.
+  Real-Time Tactical Adjustments: Develop a system that records real-time match statistics for necessary adjustments and a data visualization tools to simplify the complexity of data to help coaches intuitively grasp the situation on the field and make necessary responses in a timely manner.
+1.3 Data Science Roles Involved and their responsibilities
+  Data Analyst
+Collect and analyze match data (e.g., player performance, opposition tendencies, match statistics) and generate reports and visualizations to help the coaching staff understand trends and patterns for both pre-match and in-game strategies.
+  Data Engineer
+Develops and maintains data pipelines, ensuring real-time data collection and integrate data from various sources (match data, training data, external databases) into a cohesive system for analysis
+  Data Scientist
+-      Build predictive models to forecast player and team performance, analyzing factors such as player movements, stamina, and tactical effectiveness.
+-      Design algorithms for real-time decision-making during matches, such as suggesting optimal formations or substitutions based on match data.
+-      Apply machine learning techniques to improve tactical design and analyze opposition patterns.
+  System Architect
+Designs the infrastructure to handle large-scale, real-time match data for efficient processing and analysis.
+  Project Manager
+Oversees the project’s scope and timeline, ensuring collaboration between the team and alignment with coaching needs.
+2 Business Model
+2.1 Value Proposition
+  Description of the Solution:
+Our data science solution enhances football coaching by combining real-time data analytics, predictive modeling, and visualization tools to support both pre-match tactical planning and in-game adjustments. The system gathers data from player sensors and match footage, offering real-time insights into player performance and team dynamics.
+  Unique Benefits:
+Unlike traditional methods, this solution provides coaches with data-driven, real-time insights that allow for quick adjustments based on player fatigue, opponent tactics, and match flow. The use of predictive analytics offers a clear advantage by anticipating potential outcomes and providing optimal strategies for success.
+2.2 Benefits and Values
+  Performance Improvement:
+This tool helps teams enhance performance, improve tactical decisions, quickly response to in-game situations, effectively adjust strategies and reduce the risk of injury through optimized player management.
+  Cost Efficiency:
+It reduces the need for manual scouting and helps maximize player utilization, offering cost savings for clubs.
+  Target Customers:
+- Primary Customers: Football coaches and team managers seeking to optimize their strategies.
+- Secondary Customers: Club analysts, scouts, and players looking for detailed performance insights.
+2.3 Challenges and Risks
+  Technical Challenges:
+Challenges include integrating multiple data sources, processing real-time data efficiently, and ensuring predictive model accuracy.
+  Ethical Considerations: 
+Relying heavily on data might raise ethical concerns, such as infringing on player privacy or making decisions that prioritize data over player well-being.
+  Data Quality and Reliability: 
+The effectiveness of the solution is highly dependent on the quality of the data collected. Inaccurate or incomplete data can lead to misleading insights and poor decision-making.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Game Balance Optimization in Online Games through Data-Science
+Abstract 
+	This project focuses on how to optimize online game's balance by using data-science techniques. Game balancing is a crucial part for online game, which can significantly impact its future. Unlike the oldschool way (e.g., forming a balancing team), we aim to implement data-science techniques such as predictive data analysis. This project will collect and analyze players' performance data, item usage, in-game statistics, economics, etc., thus ensuring a fun, fair, unique, and everlasting gaming environment and experience for players. 
+Introduction
+	 Balancing has always been a pain point for the gaming industry, especially for online gaming. A bad balancing choice might cause massive attrition (for example, Tekken 8’s average concurrent users experienced a sharp decline and received numerous negative feedbacks) while good choices can revive a dying game (for example, Street-Fighter 6, Tekken’s biggest rival, saw its reputation significantly boosted after a series of wise balancing choices). Game companies usually form a balancing team to get the job done, but this seems outdated since the size of both game and gamer-base has been rapidly increasing. Therefore, it's the showtime of data-science. Unlike the old-school manual balancing style, data-science focuses on the user's data we collected, which is more accurate and efficient.
+Project Description 
+•       Objective: This project is to find a better way of game balancing by using data-science tools. 
+•       Scope: This project is focusing on balancing in-game characters, items, the reward system of winning and losing for online games. 
+•       Methodology: 
+o  Data Collection: We will collect user data such as gameplay styles, average KDA, item usage per-game, win/loss rate per-character, etc. 
+o  Data Cleaning and Processing: Format the data, make it easier to read/use, deal with missing values, normalize statistics, preparing for further analysis. 
+o  Data Analysis: That’s the most important part, by conducting statistical analysis and using machine learning to identify imbalances in the game, make balancing easier. 
+o  Model Development: Develop a model to simulate possible scenarios after certain balancing moves and predict possible effects to help deciding. 
+o  Implementation: Provide data-driven suggestions for balancing choices, together with the existing balancing team to make wiser choices. 
+•       Roles and Responsibilities: 
+o  Data Scientist: Project leader, responsible for analysis, model development, and interpreting results. 
+o  Data Engineer and Analyst: Responsible for data collecting, cleaning, processing, maintaining data pipeline, performing initial exploratory data analysis, visualizing the findings. 
+o  Balancing Team: Last stop of this project, combining the data analysis results and previous experiences to make the most efficient balancing choices. Business Model 
+•       Application Area: This project is situated in the gaming scene and focuses on game design and player experience. 
+•       Value Proposition: This project could help game developers make game fair. By doing so, players experience shall be improved, and provide positive feedback, leads to long-term retention, along with growth and profit for the developers and publishing companies—a win-win situation. 
+•       Target Beneficiaries: Developers can balance the game easier and more efficiently, while players shall find the experience more enjoyable. 
+•       Challenges: 
+o  Data Complexity: Online games have large player population, leads massive data for developers to collect and maintain. Not to mention the playstyle is differ from player to player. Since every player should be considered during the balancing process, it's a big challenge for the project members to find an efficient way to utilize the data. 
+o  Dynamic Nature of Games: Updates are a significant part of modern games, requires continuous adaptation of the model and other techniques. 
+o  Communication with Community: It's very important to ensure that our next move is acceptable to most of the players. Data, unlike humans, it’s zero-emotional. Some changes might look just right according to the analysis but turns out to be unacceptable for players when it comes to life. For 
+example, Tekken 8, one of the biggest fighting games on earth, chose to simplify inputs to make the game more beginner-friendly, but the result is out of handed. Beginners still tended to give up on game after trying, while veteran players became very angry because they felt like it’s a betrayal of their long-term training. 
+</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -10719,10 +10978,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -10730,13 +10992,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -10774,7 +11044,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -10808,6 +11078,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -10842,9 +11113,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -11017,14 +11289,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D279"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A232" workbookViewId="0">
+      <selection activeCell="C239" sqref="C239"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="115" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11038,7 +11315,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1374565</v>
       </c>
@@ -11049,10 +11326,10 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1325911</v>
       </c>
@@ -11063,10 +11340,10 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1095579</v>
       </c>
@@ -11077,10 +11354,10 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1374402</v>
       </c>
@@ -11091,10 +11368,10 @@
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1459215</v>
       </c>
@@ -11105,10 +11382,10 @@
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1287205</v>
       </c>
@@ -11119,10 +11396,10 @@
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1459165</v>
       </c>
@@ -11133,10 +11410,10 @@
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1263359</v>
       </c>
@@ -11147,10 +11424,10 @@
         <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1284482</v>
       </c>
@@ -11161,10 +11438,10 @@
         <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1432931</v>
       </c>
@@ -11175,10 +11452,10 @@
         <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1474838</v>
       </c>
@@ -11189,10 +11466,10 @@
         <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1207857</v>
       </c>
@@ -11203,10 +11480,10 @@
         <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>971663</v>
       </c>
@@ -11217,10 +11494,10 @@
         <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1169766</v>
       </c>
@@ -11231,24 +11508,24 @@
         <v>17</v>
       </c>
       <c r="D15" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1452719</v>
       </c>
       <c r="B16">
         <v>3331</v>
       </c>
-      <c r="C16" t="s">
-        <v>18</v>
+      <c r="C16" s="2" t="s">
+        <v>301</v>
       </c>
       <c r="D16" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1468337</v>
       </c>
@@ -11256,13 +11533,13 @@
         <v>3338</v>
       </c>
       <c r="C17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D17" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1424023</v>
       </c>
@@ -11270,13 +11547,13 @@
         <v>3340</v>
       </c>
       <c r="C18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D18" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1390880</v>
       </c>
@@ -11284,13 +11561,13 @@
         <v>3342</v>
       </c>
       <c r="C19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D19" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1363078</v>
       </c>
@@ -11298,13 +11575,13 @@
         <v>3343</v>
       </c>
       <c r="C20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D20" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1282842</v>
       </c>
@@ -11312,13 +11589,13 @@
         <v>3347</v>
       </c>
       <c r="C21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D21" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1453633</v>
       </c>
@@ -11326,13 +11603,13 @@
         <v>3350</v>
       </c>
       <c r="C22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D22" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1283338</v>
       </c>
@@ -11340,13 +11617,13 @@
         <v>3351</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D23" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1468334</v>
       </c>
@@ -11354,13 +11631,13 @@
         <v>3352</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D24" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1178649</v>
       </c>
@@ -11368,13 +11645,13 @@
         <v>3353</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1474837</v>
       </c>
@@ -11382,13 +11659,13 @@
         <v>3355</v>
       </c>
       <c r="C26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1324929</v>
       </c>
@@ -11396,13 +11673,13 @@
         <v>3356</v>
       </c>
       <c r="C27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D27" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1172124</v>
       </c>
@@ -11410,13 +11687,13 @@
         <v>3357</v>
       </c>
       <c r="C28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D28" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1328321</v>
       </c>
@@ -11424,13 +11701,13 @@
         <v>3358</v>
       </c>
       <c r="C29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D29" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1468356</v>
       </c>
@@ -11438,13 +11715,13 @@
         <v>3361</v>
       </c>
       <c r="C30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D30" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>1336689</v>
       </c>
@@ -11452,13 +11729,13 @@
         <v>3362</v>
       </c>
       <c r="C31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D31" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1309283</v>
       </c>
@@ -11466,13 +11743,13 @@
         <v>3365</v>
       </c>
       <c r="C32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D32" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>1402018</v>
       </c>
@@ -11480,13 +11757,13 @@
         <v>3367</v>
       </c>
       <c r="C33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D33" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1316183</v>
       </c>
@@ -11494,13 +11771,13 @@
         <v>3370</v>
       </c>
       <c r="C34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D34" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>1098252</v>
       </c>
@@ -11508,27 +11785,27 @@
         <v>3372</v>
       </c>
       <c r="C35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D35" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>1248641</v>
       </c>
       <c r="B36">
         <v>3373</v>
       </c>
-      <c r="C36" t="s">
-        <v>38</v>
+      <c r="C36" s="2" t="s">
+        <v>305</v>
       </c>
       <c r="D36" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>1289475</v>
       </c>
@@ -11536,13 +11813,13 @@
         <v>3378</v>
       </c>
       <c r="C37" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D37" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>1246426</v>
       </c>
@@ -11550,13 +11827,13 @@
         <v>3379</v>
       </c>
       <c r="C38" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D38" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>1452893</v>
       </c>
@@ -11564,13 +11841,13 @@
         <v>3380</v>
       </c>
       <c r="C39" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D39" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>1289758</v>
       </c>
@@ -11578,13 +11855,13 @@
         <v>3382</v>
       </c>
       <c r="C40" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D40" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>1171901</v>
       </c>
@@ -11592,13 +11869,13 @@
         <v>3386</v>
       </c>
       <c r="C41" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D41" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>1348185</v>
       </c>
@@ -11606,13 +11883,13 @@
         <v>3387</v>
       </c>
       <c r="C42" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D42" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>1236897</v>
       </c>
@@ -11620,13 +11897,13 @@
         <v>3388</v>
       </c>
       <c r="C43" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D43" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1358124</v>
       </c>
@@ -11634,13 +11911,13 @@
         <v>3390</v>
       </c>
       <c r="C44" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D44" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>1408536</v>
       </c>
@@ -11648,41 +11925,41 @@
         <v>3392</v>
       </c>
       <c r="C45" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D45" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>1401837</v>
       </c>
       <c r="B46">
         <v>3393</v>
       </c>
-      <c r="C46" t="s">
-        <v>48</v>
+      <c r="C46" s="2" t="s">
+        <v>306</v>
       </c>
       <c r="D46" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>1440906</v>
       </c>
       <c r="B47">
         <v>3394</v>
       </c>
-      <c r="C47" t="s">
-        <v>49</v>
+      <c r="C47" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="D47" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>1269698</v>
       </c>
@@ -11690,13 +11967,13 @@
         <v>3395</v>
       </c>
       <c r="C48" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D48" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>1371544</v>
       </c>
@@ -11704,13 +11981,13 @@
         <v>3396</v>
       </c>
       <c r="C49" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D49" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>1176214</v>
       </c>
@@ -11718,13 +11995,13 @@
         <v>3397</v>
       </c>
       <c r="C50" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D50" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>1344160</v>
       </c>
@@ -11732,13 +12009,13 @@
         <v>3398</v>
       </c>
       <c r="C51" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D51" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>1369072</v>
       </c>
@@ -11746,13 +12023,13 @@
         <v>3400</v>
       </c>
       <c r="C52" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D52" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>1452936</v>
       </c>
@@ -11760,13 +12037,13 @@
         <v>3402</v>
       </c>
       <c r="C53" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D53" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>1308858</v>
       </c>
@@ -11774,13 +12051,13 @@
         <v>3403</v>
       </c>
       <c r="C54" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D54" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>1001013</v>
       </c>
@@ -11788,13 +12065,13 @@
         <v>3406</v>
       </c>
       <c r="C55" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D55" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>1289699</v>
       </c>
@@ -11802,13 +12079,13 @@
         <v>3407</v>
       </c>
       <c r="C56" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D56" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>1227553</v>
       </c>
@@ -11816,13 +12093,13 @@
         <v>3409</v>
       </c>
       <c r="C57" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D57" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>1371947</v>
       </c>
@@ -11830,13 +12107,13 @@
         <v>3411</v>
       </c>
       <c r="C58" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D58" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>1433937</v>
       </c>
@@ -11844,13 +12121,13 @@
         <v>3412</v>
       </c>
       <c r="C59" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D59" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>1372351</v>
       </c>
@@ -11858,13 +12135,13 @@
         <v>3413</v>
       </c>
       <c r="C60" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D60" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>1328534</v>
       </c>
@@ -11872,13 +12149,13 @@
         <v>3415</v>
       </c>
       <c r="C61" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D61" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>1474982</v>
       </c>
@@ -11886,13 +12163,13 @@
         <v>3416</v>
       </c>
       <c r="C62" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D62" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>1258532</v>
       </c>
@@ -11900,13 +12177,13 @@
         <v>3420</v>
       </c>
       <c r="C63" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D63" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>1220374</v>
       </c>
@@ -11914,13 +12191,13 @@
         <v>3423</v>
       </c>
       <c r="C64" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D64" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>1365020</v>
       </c>
@@ -11928,13 +12205,13 @@
         <v>3424</v>
       </c>
       <c r="C65" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D65" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>1396049</v>
       </c>
@@ -11942,13 +12219,13 @@
         <v>3426</v>
       </c>
       <c r="C66" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D66" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>1156175</v>
       </c>
@@ -11956,13 +12233,13 @@
         <v>3428</v>
       </c>
       <c r="C67" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D67" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>1452928</v>
       </c>
@@ -11970,13 +12247,13 @@
         <v>3429</v>
       </c>
       <c r="C68" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D68" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>1468916</v>
       </c>
@@ -11984,13 +12261,13 @@
         <v>3431</v>
       </c>
       <c r="C69" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D69" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>1467151</v>
       </c>
@@ -11998,13 +12275,13 @@
         <v>3432</v>
       </c>
       <c r="C70" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D70" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>1366843</v>
       </c>
@@ -12012,13 +12289,13 @@
         <v>3436</v>
       </c>
       <c r="C71" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D71" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>1330206</v>
       </c>
@@ -12026,13 +12303,13 @@
         <v>3440</v>
       </c>
       <c r="C72" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D72" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>1452748</v>
       </c>
@@ -12040,27 +12317,27 @@
         <v>3442</v>
       </c>
       <c r="C73" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D73" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>1481150</v>
       </c>
       <c r="B74">
         <v>3445</v>
       </c>
-      <c r="C74" t="s">
-        <v>76</v>
+      <c r="C74" s="2" t="s">
+        <v>307</v>
       </c>
       <c r="D74" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>976831</v>
       </c>
@@ -12068,13 +12345,13 @@
         <v>3446</v>
       </c>
       <c r="C75" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D75" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>1435747</v>
       </c>
@@ -12082,13 +12359,13 @@
         <v>3447</v>
       </c>
       <c r="C76" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D76" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>1326802</v>
       </c>
@@ -12096,13 +12373,13 @@
         <v>3448</v>
       </c>
       <c r="C77" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D77" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>1474976</v>
       </c>
@@ -12110,13 +12387,13 @@
         <v>3449</v>
       </c>
       <c r="C78" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D78" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>1445370</v>
       </c>
@@ -12124,13 +12401,13 @@
         <v>3450</v>
       </c>
       <c r="C79" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D79" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>1330790</v>
       </c>
@@ -12138,13 +12415,13 @@
         <v>3451</v>
       </c>
       <c r="C80" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D80" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>968658</v>
       </c>
@@ -12152,13 +12429,13 @@
         <v>3452</v>
       </c>
       <c r="C81" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D81" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>1452720</v>
       </c>
@@ -12166,13 +12443,13 @@
         <v>3455</v>
       </c>
       <c r="C82" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D82" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>1423733</v>
       </c>
@@ -12180,13 +12457,13 @@
         <v>3456</v>
       </c>
       <c r="C83" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D83" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>1402157</v>
       </c>
@@ -12194,13 +12471,13 @@
         <v>3457</v>
       </c>
       <c r="C84" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D84" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>960630</v>
       </c>
@@ -12208,13 +12485,13 @@
         <v>3458</v>
       </c>
       <c r="C85" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D85" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>1148102</v>
       </c>
@@ -12222,13 +12499,13 @@
         <v>3459</v>
       </c>
       <c r="C86" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D86" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>1068690</v>
       </c>
@@ -12236,13 +12513,13 @@
         <v>3460</v>
       </c>
       <c r="C87" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D87" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>1097979</v>
       </c>
@@ -12250,13 +12527,13 @@
         <v>3464</v>
       </c>
       <c r="C88" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D88" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>1054622</v>
       </c>
@@ -12264,13 +12541,13 @@
         <v>3466</v>
       </c>
       <c r="C89" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D89" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>1207241</v>
       </c>
@@ -12278,27 +12555,27 @@
         <v>3467</v>
       </c>
       <c r="C90" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D90" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>1372357</v>
       </c>
       <c r="B91">
         <v>3470</v>
       </c>
-      <c r="C91" t="s">
-        <v>93</v>
+      <c r="C91" s="2" t="s">
+        <v>308</v>
       </c>
       <c r="D91" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>849383</v>
       </c>
@@ -12306,13 +12583,13 @@
         <v>3471</v>
       </c>
       <c r="C92" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D92" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>1207579</v>
       </c>
@@ -12320,13 +12597,13 @@
         <v>3472</v>
       </c>
       <c r="C93" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D93" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>1468926</v>
       </c>
@@ -12334,13 +12611,13 @@
         <v>3474</v>
       </c>
       <c r="C94" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D94" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>1430222</v>
       </c>
@@ -12348,13 +12625,13 @@
         <v>3475</v>
       </c>
       <c r="C95" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D95" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>1467148</v>
       </c>
@@ -12362,13 +12639,13 @@
         <v>3476</v>
       </c>
       <c r="C96" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D96" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>1439300</v>
       </c>
@@ -12376,13 +12653,13 @@
         <v>3477</v>
       </c>
       <c r="C97" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D97" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>1282396</v>
       </c>
@@ -12390,13 +12667,13 @@
         <v>3480</v>
       </c>
       <c r="C98" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D98" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>1298870</v>
       </c>
@@ -12404,13 +12681,13 @@
         <v>3482</v>
       </c>
       <c r="C99" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D99" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>1225484</v>
       </c>
@@ -12418,13 +12695,13 @@
         <v>3483</v>
       </c>
       <c r="C100" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D100" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>1233286</v>
       </c>
@@ -12432,27 +12709,27 @@
         <v>3485</v>
       </c>
       <c r="C101" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D101" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>1274849</v>
       </c>
       <c r="B102">
         <v>3486</v>
       </c>
-      <c r="C102" t="s">
-        <v>104</v>
+      <c r="C102" s="2" t="s">
+        <v>302</v>
       </c>
       <c r="D102" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>1334807</v>
       </c>
@@ -12460,13 +12737,13 @@
         <v>3487</v>
       </c>
       <c r="C103" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D103" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>1267474</v>
       </c>
@@ -12474,13 +12751,13 @@
         <v>3488</v>
       </c>
       <c r="C104" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D104" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>1346329</v>
       </c>
@@ -12488,13 +12765,13 @@
         <v>3489</v>
       </c>
       <c r="C105" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D105" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>1481154</v>
       </c>
@@ -12502,13 +12779,13 @@
         <v>3490</v>
       </c>
       <c r="C106" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D106" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>1391614</v>
       </c>
@@ -12516,13 +12793,13 @@
         <v>3492</v>
       </c>
       <c r="C107" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D107" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>1468296</v>
       </c>
@@ -12530,13 +12807,13 @@
         <v>3493</v>
       </c>
       <c r="C108" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D108" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>1341252</v>
       </c>
@@ -12544,13 +12821,13 @@
         <v>3496</v>
       </c>
       <c r="C109" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D109" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>1260063</v>
       </c>
@@ -12558,13 +12835,13 @@
         <v>3498</v>
       </c>
       <c r="C110" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D110" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>1309139</v>
       </c>
@@ -12572,13 +12849,13 @@
         <v>3499</v>
       </c>
       <c r="C111" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D111" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>1481153</v>
       </c>
@@ -12586,13 +12863,13 @@
         <v>3500</v>
       </c>
       <c r="C112" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D112" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>1171748</v>
       </c>
@@ -12600,13 +12877,13 @@
         <v>3501</v>
       </c>
       <c r="C113" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D113" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>1283247</v>
       </c>
@@ -12614,13 +12891,13 @@
         <v>3505</v>
       </c>
       <c r="C114" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D114" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>1372098</v>
       </c>
@@ -12628,13 +12905,13 @@
         <v>3507</v>
       </c>
       <c r="C115" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D115" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>1474992</v>
       </c>
@@ -12642,13 +12919,13 @@
         <v>3511</v>
       </c>
       <c r="C116" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D116" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>1403558</v>
       </c>
@@ -12656,13 +12933,13 @@
         <v>3517</v>
       </c>
       <c r="C117" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D117" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>1436582</v>
       </c>
@@ -12670,13 +12947,13 @@
         <v>3518</v>
       </c>
       <c r="C118" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D118" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>1430610</v>
       </c>
@@ -12684,13 +12961,13 @@
         <v>3519</v>
       </c>
       <c r="C119" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D119" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>1336575</v>
       </c>
@@ -12698,13 +12975,13 @@
         <v>3520</v>
       </c>
       <c r="C120" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D120" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>1378817</v>
       </c>
@@ -12712,13 +12989,13 @@
         <v>3521</v>
       </c>
       <c r="C121" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D121" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>968764</v>
       </c>
@@ -12726,13 +13003,13 @@
         <v>3522</v>
       </c>
       <c r="C122" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D122" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>857090</v>
       </c>
@@ -12740,13 +13017,13 @@
         <v>3523</v>
       </c>
       <c r="C123" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D123" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>1398003</v>
       </c>
@@ -12754,13 +13031,13 @@
         <v>3524</v>
       </c>
       <c r="C124" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D124" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>1481145</v>
       </c>
@@ -12768,27 +13045,27 @@
         <v>3526</v>
       </c>
       <c r="C125" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D125" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>1474974</v>
       </c>
       <c r="B126">
         <v>3530</v>
       </c>
-      <c r="C126" t="s">
-        <v>128</v>
+      <c r="C126" s="2" t="s">
+        <v>309</v>
       </c>
       <c r="D126" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>1312135</v>
       </c>
@@ -12796,13 +13073,13 @@
         <v>3532</v>
       </c>
       <c r="C127" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D127" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>1452930</v>
       </c>
@@ -12810,13 +13087,13 @@
         <v>3534</v>
       </c>
       <c r="C128" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D128" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>1311268</v>
       </c>
@@ -12824,13 +13101,13 @@
         <v>3536</v>
       </c>
       <c r="C129" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="D129" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>1009360</v>
       </c>
@@ -12838,13 +13115,13 @@
         <v>3537</v>
       </c>
       <c r="C130" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="D130" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>1432138</v>
       </c>
@@ -12852,13 +13129,13 @@
         <v>3539</v>
       </c>
       <c r="C131" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="D131" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>1372300</v>
       </c>
@@ -12866,13 +13143,13 @@
         <v>3540</v>
       </c>
       <c r="C132" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D132" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>1474854</v>
       </c>
@@ -12880,13 +13157,13 @@
         <v>3542</v>
       </c>
       <c r="C133" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="D133" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>1259979</v>
       </c>
@@ -12894,13 +13171,13 @@
         <v>3544</v>
       </c>
       <c r="C134" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D134" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>1468915</v>
       </c>
@@ -12908,13 +13185,13 @@
         <v>3545</v>
       </c>
       <c r="C135" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D135" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>1196553</v>
       </c>
@@ -12922,13 +13199,13 @@
         <v>3546</v>
       </c>
       <c r="C136" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="D136" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>1291520</v>
       </c>
@@ -12936,13 +13213,13 @@
         <v>3547</v>
       </c>
       <c r="C137" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D137" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>1465755</v>
       </c>
@@ -12950,13 +13227,13 @@
         <v>3548</v>
       </c>
       <c r="C138" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D138" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>1436597</v>
       </c>
@@ -12964,13 +13241,13 @@
         <v>3549</v>
       </c>
       <c r="C139" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="D139" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>1447826</v>
       </c>
@@ -12978,13 +13255,13 @@
         <v>3551</v>
       </c>
       <c r="C140" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D140" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>1324805</v>
       </c>
@@ -12992,13 +13269,13 @@
         <v>3552</v>
       </c>
       <c r="C141" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="D141" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>1225044</v>
       </c>
@@ -13006,13 +13283,13 @@
         <v>3553</v>
       </c>
       <c r="C142" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="D142" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>1097907</v>
       </c>
@@ -13020,13 +13297,13 @@
         <v>3554</v>
       </c>
       <c r="C143" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="D143" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>1378792</v>
       </c>
@@ -13034,13 +13311,13 @@
         <v>3555</v>
       </c>
       <c r="C144" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="D144" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>1430936</v>
       </c>
@@ -13048,13 +13325,13 @@
         <v>3557</v>
       </c>
       <c r="C145" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D145" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>1306677</v>
       </c>
@@ -13062,13 +13339,13 @@
         <v>3559</v>
       </c>
       <c r="C146" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="D146" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>1194255</v>
       </c>
@@ -13076,13 +13353,13 @@
         <v>3561</v>
       </c>
       <c r="C147" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="D147" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>1430611</v>
       </c>
@@ -13090,13 +13367,13 @@
         <v>3562</v>
       </c>
       <c r="C148" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D148" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>1239475</v>
       </c>
@@ -13104,13 +13381,13 @@
         <v>3563</v>
       </c>
       <c r="C149" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="D149" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>1481152</v>
       </c>
@@ -13118,13 +13395,13 @@
         <v>3564</v>
       </c>
       <c r="C150" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="D150" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>1308706</v>
       </c>
@@ -13132,13 +13409,13 @@
         <v>3565</v>
       </c>
       <c r="C151" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="D151" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>1237954</v>
       </c>
@@ -13146,13 +13423,13 @@
         <v>3566</v>
       </c>
       <c r="C152" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="D152" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>1459164</v>
       </c>
@@ -13160,13 +13437,13 @@
         <v>3568</v>
       </c>
       <c r="C153" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="D153" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>1436600</v>
       </c>
@@ -13174,13 +13451,13 @@
         <v>3570</v>
       </c>
       <c r="C154" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D154" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>1458482</v>
       </c>
@@ -13188,13 +13465,13 @@
         <v>3571</v>
       </c>
       <c r="C155" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="D155" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>1327056</v>
       </c>
@@ -13202,27 +13479,27 @@
         <v>3572</v>
       </c>
       <c r="C156" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="D156" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>1436866</v>
       </c>
       <c r="B157">
         <v>3573</v>
       </c>
-      <c r="C157" t="s">
-        <v>159</v>
+      <c r="C157" s="2" t="s">
+        <v>310</v>
       </c>
       <c r="D157" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>1440886</v>
       </c>
@@ -13230,13 +13507,13 @@
         <v>3575</v>
       </c>
       <c r="C158" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="D158" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>1430224</v>
       </c>
@@ -13244,13 +13521,13 @@
         <v>3576</v>
       </c>
       <c r="C159" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="D159" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>1436865</v>
       </c>
@@ -13258,13 +13535,13 @@
         <v>3578</v>
       </c>
       <c r="C160" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="D160" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>1430470</v>
       </c>
@@ -13272,13 +13549,13 @@
         <v>3579</v>
       </c>
       <c r="C161" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="D161" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>1395506</v>
       </c>
@@ -13286,13 +13563,13 @@
         <v>3582</v>
       </c>
       <c r="C162" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="D162" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>1429703</v>
       </c>
@@ -13300,13 +13577,13 @@
         <v>3585</v>
       </c>
       <c r="C163" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="D163" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>1311146</v>
       </c>
@@ -13314,13 +13591,13 @@
         <v>3586</v>
       </c>
       <c r="C164" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="D164" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>1430419</v>
       </c>
@@ -13328,13 +13605,13 @@
         <v>3587</v>
       </c>
       <c r="C165" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="D165" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>1460904</v>
       </c>
@@ -13342,13 +13619,13 @@
         <v>3588</v>
       </c>
       <c r="C166" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="D166" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>1468704</v>
       </c>
@@ -13356,13 +13633,13 @@
         <v>3590</v>
       </c>
       <c r="C167" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="D167" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>1452942</v>
       </c>
@@ -13370,13 +13647,13 @@
         <v>3591</v>
       </c>
       <c r="C168" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="D168" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>1452949</v>
       </c>
@@ -13384,13 +13661,13 @@
         <v>3592</v>
       </c>
       <c r="C169" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="D169" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>963476</v>
       </c>
@@ -13398,27 +13675,27 @@
         <v>3596</v>
       </c>
       <c r="C170" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D170" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>1337261</v>
       </c>
       <c r="B171">
         <v>3597</v>
       </c>
-      <c r="C171" t="s">
-        <v>173</v>
+      <c r="C171" s="2" t="s">
+        <v>303</v>
       </c>
       <c r="D171" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>1447217</v>
       </c>
@@ -13426,13 +13703,13 @@
         <v>3598</v>
       </c>
       <c r="C172" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="D172" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>1481143</v>
       </c>
@@ -13440,13 +13717,13 @@
         <v>3599</v>
       </c>
       <c r="C173" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="D173" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>1223297</v>
       </c>
@@ -13454,13 +13731,13 @@
         <v>3600</v>
       </c>
       <c r="C174" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="D174" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>1372322</v>
       </c>
@@ -13468,13 +13745,13 @@
         <v>3601</v>
       </c>
       <c r="C175" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="D175" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>1377809</v>
       </c>
@@ -13482,13 +13759,13 @@
         <v>3602</v>
       </c>
       <c r="C176" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="D176" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>862000</v>
       </c>
@@ -13496,13 +13773,13 @@
         <v>3603</v>
       </c>
       <c r="C177" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="D177" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>1373780</v>
       </c>
@@ -13510,13 +13787,13 @@
         <v>3604</v>
       </c>
       <c r="C178" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="D178" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>1480735</v>
       </c>
@@ -13524,13 +13801,13 @@
         <v>3605</v>
       </c>
       <c r="C179" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="D179" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>1313312</v>
       </c>
@@ -13538,13 +13815,13 @@
         <v>3606</v>
       </c>
       <c r="C180" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="D180" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>1015768</v>
       </c>
@@ -13552,13 +13829,13 @@
         <v>3608</v>
       </c>
       <c r="C181" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="D181" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>1430206</v>
       </c>
@@ -13566,13 +13843,13 @@
         <v>3609</v>
       </c>
       <c r="C182" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="D182" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>1294946</v>
       </c>
@@ -13580,13 +13857,13 @@
         <v>3610</v>
       </c>
       <c r="C183" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="D183" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>1351099</v>
       </c>
@@ -13594,13 +13871,13 @@
         <v>3611</v>
       </c>
       <c r="C184" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="D184" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>1104729</v>
       </c>
@@ -13608,13 +13885,13 @@
         <v>3612</v>
       </c>
       <c r="C185" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="D185" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>862511</v>
       </c>
@@ -13622,13 +13899,13 @@
         <v>3613</v>
       </c>
       <c r="C186" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="D186" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>1459231</v>
       </c>
@@ -13636,13 +13913,13 @@
         <v>3616</v>
       </c>
       <c r="C187" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="D187" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>1317788</v>
       </c>
@@ -13650,13 +13927,13 @@
         <v>3617</v>
       </c>
       <c r="C188" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="D188" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>1378024</v>
       </c>
@@ -13664,13 +13941,13 @@
         <v>3620</v>
       </c>
       <c r="C189" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="D189" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>1402113</v>
       </c>
@@ -13678,13 +13955,13 @@
         <v>3622</v>
       </c>
       <c r="C190" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="D190" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>1430469</v>
       </c>
@@ -13692,13 +13969,13 @@
         <v>3624</v>
       </c>
       <c r="C191" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="D191" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>1353682</v>
       </c>
@@ -13706,13 +13983,13 @@
         <v>3627</v>
       </c>
       <c r="C192" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="D192" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>1402193</v>
       </c>
@@ -13720,13 +13997,13 @@
         <v>3628</v>
       </c>
       <c r="C193" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="D193" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>1474853</v>
       </c>
@@ -13734,13 +14011,13 @@
         <v>3632</v>
       </c>
       <c r="C194" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="D194" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>1233884</v>
       </c>
@@ -13748,13 +14025,13 @@
         <v>3633</v>
       </c>
       <c r="C195" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="D195" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>1350587</v>
       </c>
@@ -13762,13 +14039,13 @@
         <v>3635</v>
       </c>
       <c r="C196" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="D196" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>1247174</v>
       </c>
@@ -13776,13 +14053,13 @@
         <v>3638</v>
       </c>
       <c r="C197" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="D197" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>1283586</v>
       </c>
@@ -13790,13 +14067,13 @@
         <v>3641</v>
       </c>
       <c r="C198" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="D198" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>1450625</v>
       </c>
@@ -13804,13 +14081,13 @@
         <v>3643</v>
       </c>
       <c r="C199" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="D199" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>1373784</v>
       </c>
@@ -13818,13 +14095,13 @@
         <v>3644</v>
       </c>
       <c r="C200" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="D200" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>1227586</v>
       </c>
@@ -13832,13 +14109,13 @@
         <v>3645</v>
       </c>
       <c r="C201" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="D201" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>1247356</v>
       </c>
@@ -13846,13 +14123,13 @@
         <v>3646</v>
       </c>
       <c r="C202" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="D202" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>1310818</v>
       </c>
@@ -13860,13 +14137,13 @@
         <v>3647</v>
       </c>
       <c r="C203" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="D203" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>1264481</v>
       </c>
@@ -13874,13 +14151,13 @@
         <v>3648</v>
       </c>
       <c r="C204" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="D204" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>1372279</v>
       </c>
@@ -13888,13 +14165,13 @@
         <v>3649</v>
       </c>
       <c r="C205" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="D205" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>1371946</v>
       </c>
@@ -13902,13 +14179,13 @@
         <v>3651</v>
       </c>
       <c r="C206" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="D206" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>1474921</v>
       </c>
@@ -13916,13 +14193,13 @@
         <v>3652</v>
       </c>
       <c r="C207" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="D207" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>1452938</v>
       </c>
@@ -13930,13 +14207,13 @@
         <v>3654</v>
       </c>
       <c r="C208" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="D208" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>1451226</v>
       </c>
@@ -13944,13 +14221,13 @@
         <v>3655</v>
       </c>
       <c r="C209" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="D209" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>1467122</v>
       </c>
@@ -13958,13 +14235,13 @@
         <v>3656</v>
       </c>
       <c r="C210" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="D210" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>1368401</v>
       </c>
@@ -13972,13 +14249,13 @@
         <v>3658</v>
       </c>
       <c r="C211" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="D211" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>968766</v>
       </c>
@@ -13986,13 +14263,13 @@
         <v>3659</v>
       </c>
       <c r="C212" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="D212" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>1353461</v>
       </c>
@@ -14000,13 +14277,13 @@
         <v>3660</v>
       </c>
       <c r="C213" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="D213" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>1357321</v>
       </c>
@@ -14014,13 +14291,13 @@
         <v>3661</v>
       </c>
       <c r="C214" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="D214" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>1163797</v>
       </c>
@@ -14028,27 +14305,27 @@
         <v>3662</v>
       </c>
       <c r="C215" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="D215" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>1162220</v>
       </c>
       <c r="B216">
         <v>3663</v>
       </c>
-      <c r="C216" t="s">
-        <v>218</v>
+      <c r="C216" s="2" t="s">
+        <v>304</v>
       </c>
       <c r="D216" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>1245972</v>
       </c>
@@ -14056,13 +14333,13 @@
         <v>3664</v>
       </c>
       <c r="C217" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="D217" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>1451940</v>
       </c>
@@ -14070,13 +14347,13 @@
         <v>3666</v>
       </c>
       <c r="C218" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="D218" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>1114250</v>
       </c>
@@ -14084,13 +14361,13 @@
         <v>3668</v>
       </c>
       <c r="C219" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="D219" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>1246172</v>
       </c>
@@ -14098,13 +14375,13 @@
         <v>3669</v>
       </c>
       <c r="C220" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="D220" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>1468355</v>
       </c>
@@ -14112,13 +14389,13 @@
         <v>3670</v>
       </c>
       <c r="C221" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="D221" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>1179912</v>
       </c>
@@ -14126,13 +14403,13 @@
         <v>3672</v>
       </c>
       <c r="C222" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="D222" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>1435460</v>
       </c>
@@ -14140,13 +14417,13 @@
         <v>3673</v>
       </c>
       <c r="C223" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="D223" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>1327443</v>
       </c>
@@ -14154,13 +14431,13 @@
         <v>3674</v>
       </c>
       <c r="C224" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="D224" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>1452690</v>
       </c>
@@ -14168,13 +14445,13 @@
         <v>3676</v>
       </c>
       <c r="C225" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="D225" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>1290743</v>
       </c>
@@ -14182,13 +14459,13 @@
         <v>3677</v>
       </c>
       <c r="C226" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="D226" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>937319</v>
       </c>
@@ -14196,13 +14473,13 @@
         <v>3678</v>
       </c>
       <c r="C227" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="D227" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>1285595</v>
       </c>
@@ -14210,13 +14487,13 @@
         <v>3680</v>
       </c>
       <c r="C228" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="D228" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>1331812</v>
       </c>
@@ -14224,13 +14501,13 @@
         <v>3681</v>
       </c>
       <c r="C229" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="D229" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>1463279</v>
       </c>
@@ -14238,27 +14515,27 @@
         <v>3682</v>
       </c>
       <c r="C230" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="D230" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>1481148</v>
       </c>
       <c r="B231">
         <v>3683</v>
       </c>
-      <c r="C231" t="s">
-        <v>233</v>
+      <c r="C231" s="2" t="s">
+        <v>311</v>
       </c>
       <c r="D231" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>1474978</v>
       </c>
@@ -14266,13 +14543,13 @@
         <v>3684</v>
       </c>
       <c r="C232" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="D232" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>1474917</v>
       </c>
@@ -14280,13 +14557,13 @@
         <v>3685</v>
       </c>
       <c r="C233" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="D233" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>1156191</v>
       </c>
@@ -14294,13 +14571,13 @@
         <v>3686</v>
       </c>
       <c r="C234" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="D234" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>1370621</v>
       </c>
@@ -14308,13 +14585,13 @@
         <v>3687</v>
       </c>
       <c r="C235" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="D235" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>1355380</v>
       </c>
@@ -14322,13 +14599,13 @@
         <v>3689</v>
       </c>
       <c r="C236" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="D236" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>1378902</v>
       </c>
@@ -14336,13 +14613,13 @@
         <v>3691</v>
       </c>
       <c r="C237" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="D237" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>1375554</v>
       </c>
@@ -14350,27 +14627,27 @@
         <v>3692</v>
       </c>
       <c r="C238" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="D238" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>1154942</v>
       </c>
       <c r="B239">
         <v>3695</v>
       </c>
-      <c r="C239" t="s">
-        <v>241</v>
+      <c r="C239" s="2" t="s">
+        <v>312</v>
       </c>
       <c r="D239" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>1273558</v>
       </c>
@@ -14378,13 +14655,13 @@
         <v>3697</v>
       </c>
       <c r="C240" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="D240" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>1338930</v>
       </c>
@@ -14392,13 +14669,13 @@
         <v>3699</v>
       </c>
       <c r="C241" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="D241" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>1203986</v>
       </c>
@@ -14406,13 +14683,13 @@
         <v>3700</v>
       </c>
       <c r="C242" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="D242" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>1390180</v>
       </c>
@@ -14420,13 +14697,13 @@
         <v>3701</v>
       </c>
       <c r="C243" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="D243" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>1434201</v>
       </c>
@@ -14434,13 +14711,13 @@
         <v>3702</v>
       </c>
       <c r="C244" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="D244" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>1474918</v>
       </c>
@@ -14448,13 +14725,13 @@
         <v>3703</v>
       </c>
       <c r="C245" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="D245" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>1467154</v>
       </c>
@@ -14462,13 +14739,13 @@
         <v>3705</v>
       </c>
       <c r="C246" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="D246" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>1430461</v>
       </c>
@@ -14476,13 +14753,13 @@
         <v>3707</v>
       </c>
       <c r="C247" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="D247" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>1442046</v>
       </c>
@@ -14490,13 +14767,13 @@
         <v>3708</v>
       </c>
       <c r="C248" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="D248" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>968850</v>
       </c>
@@ -14504,13 +14781,13 @@
         <v>3711</v>
       </c>
       <c r="C249" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="D249" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>1452941</v>
       </c>
@@ -14518,13 +14795,13 @@
         <v>3713</v>
       </c>
       <c r="C250" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="D250" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>1433943</v>
       </c>
@@ -14532,13 +14809,13 @@
         <v>3714</v>
       </c>
       <c r="C251" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="D251" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>1474920</v>
       </c>
@@ -14546,13 +14823,13 @@
         <v>3715</v>
       </c>
       <c r="C252" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="D252" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>863361</v>
       </c>
@@ -14560,13 +14837,13 @@
         <v>3719</v>
       </c>
       <c r="C253" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="D253" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="254" spans="1:4">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>1357259</v>
       </c>
@@ -14574,13 +14851,13 @@
         <v>3721</v>
       </c>
       <c r="C254" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="D254" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>1430626</v>
       </c>
@@ -14588,13 +14865,13 @@
         <v>3723</v>
       </c>
       <c r="C255" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="D255" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>1440913</v>
       </c>
@@ -14602,13 +14879,13 @@
         <v>3725</v>
       </c>
       <c r="C256" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="D256" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="257" spans="1:4">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>1459169</v>
       </c>
@@ -14616,13 +14893,13 @@
         <v>3726</v>
       </c>
       <c r="C257" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="D257" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>1323928</v>
       </c>
@@ -14630,13 +14907,13 @@
         <v>3729</v>
       </c>
       <c r="C258" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="D258" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>1403562</v>
       </c>
@@ -14644,13 +14921,13 @@
         <v>3735</v>
       </c>
       <c r="C259" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="D259" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>1200962</v>
       </c>
@@ -14658,13 +14935,13 @@
         <v>3738</v>
       </c>
       <c r="C260" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="D260" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="261" spans="1:4">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>1152451</v>
       </c>
@@ -14672,13 +14949,13 @@
         <v>3744</v>
       </c>
       <c r="C261" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="D261" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>1439030</v>
       </c>
@@ -14686,13 +14963,13 @@
         <v>3748</v>
       </c>
       <c r="C262" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="D262" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="263" spans="1:4">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>1430619</v>
       </c>
@@ -14700,13 +14977,13 @@
         <v>3751</v>
       </c>
       <c r="C263" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="D263" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="264" spans="1:4">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>1245271</v>
       </c>
@@ -14714,13 +14991,13 @@
         <v>3752</v>
       </c>
       <c r="C264" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="D264" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="265" spans="1:4">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>1430631</v>
       </c>
@@ -14728,13 +15005,13 @@
         <v>3753</v>
       </c>
       <c r="C265" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="D265" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="266" spans="1:4">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>1191669</v>
       </c>
@@ -14742,13 +15019,13 @@
         <v>3754</v>
       </c>
       <c r="C266" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="D266" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="267" spans="1:4">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>1097946</v>
       </c>
@@ -14756,13 +15033,13 @@
         <v>3755</v>
       </c>
       <c r="C267" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="D267" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="268" spans="1:4">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>1430627</v>
       </c>
@@ -14770,13 +15047,13 @@
         <v>3756</v>
       </c>
       <c r="C268" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="D268" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="269" spans="1:4">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>1430546</v>
       </c>
@@ -14784,13 +15061,13 @@
         <v>3757</v>
       </c>
       <c r="C269" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="D269" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="270" spans="1:4">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>1189516</v>
       </c>
@@ -14798,13 +15075,13 @@
         <v>3758</v>
       </c>
       <c r="C270" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="D270" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="271" spans="1:4">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>1290294</v>
       </c>
@@ -14812,13 +15089,13 @@
         <v>3760</v>
       </c>
       <c r="C271" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="D271" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="272" spans="1:4">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>1221895</v>
       </c>
@@ -14826,13 +15103,13 @@
         <v>3761</v>
       </c>
       <c r="C272" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="D272" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="273" spans="1:4">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>1006631</v>
       </c>
@@ -14840,13 +15117,13 @@
         <v>3763</v>
       </c>
       <c r="C273" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="D273" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="274" spans="1:4">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>1334446</v>
       </c>
@@ -14854,13 +15131,13 @@
         <v>3764</v>
       </c>
       <c r="C274" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="D274" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="275" spans="1:4">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>1430920</v>
       </c>
@@ -14868,13 +15145,13 @@
         <v>3771</v>
       </c>
       <c r="C275" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="D275" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="276" spans="1:4">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>1445465</v>
       </c>
@@ -14882,13 +15159,13 @@
         <v>3772</v>
       </c>
       <c r="C276" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="D276" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="277" spans="1:4">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>1311092</v>
       </c>
@@ -14896,13 +15173,13 @@
         <v>3775</v>
       </c>
       <c r="C277" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="D277" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="278" spans="1:4">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>1430623</v>
       </c>
@@ -14910,13 +15187,13 @@
         <v>3776</v>
       </c>
       <c r="C278" t="s">
+        <v>268</v>
+      </c>
+      <c r="D278" t="s">
         <v>280</v>
       </c>
-      <c r="D278" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="279" spans="1:4">
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>1448557</v>
       </c>
@@ -14924,10 +15201,10 @@
         <v>3779</v>
       </c>
       <c r="C279" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="D279" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>
